--- a/bin/exceltools/excel_files/draw_guess.xlsx
+++ b/bin/exceltools/excel_files/draw_guess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9360"/>
+    <workbookView windowWidth="18468" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -2214,6 +2214,72 @@
   </si>
   <si>
     <t>活蹦乱跳</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>调料</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>干果</t>
+  </si>
+  <si>
+    <t>医学</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>乐器</t>
+  </si>
+  <si>
+    <t>财经</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>生活用品</t>
+  </si>
+  <si>
+    <t>动漫</t>
+  </si>
+  <si>
+    <t>自然现象</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>身体部位</t>
+  </si>
+  <si>
+    <t>植物</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>成语</t>
   </si>
 </sst>
 </file>
@@ -2221,19 +2287,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2253,15 +2312,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2276,38 +2342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2320,14 +2355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2343,6 +2370,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2351,8 +2416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2366,31 +2432,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2416,13 +2475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,13 +2499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2452,37 +2523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,13 +2559,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,31 +2607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,31 +2625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2590,13 +2649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2607,6 +2666,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2638,22 +2721,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2669,26 +2748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2712,170 +2771,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3237,10 +3292,10 @@
   <sheetPr/>
   <dimension ref="A1:E710"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3261,47 +3316,47 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.6" spans="1:3">
       <c r="A5" s="1">
@@ -3310,7 +3365,7 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3321,7 +3376,7 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3332,7 +3387,7 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3343,7 +3398,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3354,7 +3409,7 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3365,7 +3420,7 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3376,7 +3431,7 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3387,7 +3442,7 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3398,7 +3453,7 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3409,7 +3464,7 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3420,7 +3475,7 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3431,7 +3486,7 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3442,7 +3497,7 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3453,7 +3508,7 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3464,7 +3519,7 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3475,7 +3530,7 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3486,7 +3541,7 @@
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3497,7 +3552,7 @@
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3508,7 +3563,7 @@
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3519,7 +3574,7 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3530,7 +3585,7 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3541,7 +3596,7 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3552,7 +3607,7 @@
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3563,7 +3618,7 @@
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3574,7 +3629,7 @@
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3585,7 +3640,7 @@
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3596,7 +3651,7 @@
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3607,7 +3662,7 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3618,7 +3673,7 @@
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3629,7 +3684,7 @@
       <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3640,7 +3695,7 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3651,7 +3706,7 @@
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3662,7 +3717,7 @@
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3673,7 +3728,7 @@
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3684,7 +3739,7 @@
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3695,7 +3750,7 @@
       <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3706,7 +3761,7 @@
       <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3717,7 +3772,7 @@
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3728,7 +3783,7 @@
       <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3739,7 +3794,7 @@
       <c r="B44" s="1">
         <v>1</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3750,7 +3805,7 @@
       <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3761,7 +3816,7 @@
       <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3772,7 +3827,7 @@
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3783,7 +3838,7 @@
       <c r="B48" s="1">
         <v>1</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3794,7 +3849,7 @@
       <c r="B49" s="1">
         <v>1</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3805,7 +3860,7 @@
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3816,7 +3871,7 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3827,7 +3882,7 @@
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3838,7 +3893,7 @@
       <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3849,7 +3904,7 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3860,7 +3915,7 @@
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3871,7 +3926,7 @@
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3882,7 +3937,7 @@
       <c r="B57" s="1">
         <v>1</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3893,7 +3948,7 @@
       <c r="B58" s="1">
         <v>1</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3904,7 +3959,7 @@
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3915,7 +3970,7 @@
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3926,7 +3981,7 @@
       <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3937,7 +3992,7 @@
       <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3948,7 +4003,7 @@
       <c r="B63" s="1">
         <v>1</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3959,7 +4014,7 @@
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3970,7 +4025,7 @@
       <c r="B65" s="1">
         <v>1</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3981,7 +4036,7 @@
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3992,7 +4047,7 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4003,7 +4058,7 @@
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4014,7 +4069,7 @@
       <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4025,7 +4080,7 @@
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4036,7 +4091,7 @@
       <c r="B71" s="1">
         <v>1</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="4" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4047,7 +4102,7 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4058,7 +4113,7 @@
       <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4069,7 +4124,7 @@
       <c r="B74" s="1">
         <v>2</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4080,7 +4135,7 @@
       <c r="B75" s="1">
         <v>2</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="4" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4091,7 +4146,7 @@
       <c r="B76" s="1">
         <v>2</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4102,7 +4157,7 @@
       <c r="B77" s="1">
         <v>2</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4113,7 +4168,7 @@
       <c r="B78" s="1">
         <v>2</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4124,7 +4179,7 @@
       <c r="B79" s="1">
         <v>2</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4135,7 +4190,7 @@
       <c r="B80" s="1">
         <v>2</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4146,7 +4201,7 @@
       <c r="B81" s="1">
         <v>2</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4157,7 +4212,7 @@
       <c r="B82" s="1">
         <v>2</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4168,7 +4223,7 @@
       <c r="B83" s="1">
         <v>2</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4179,7 +4234,7 @@
       <c r="B84" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4190,7 +4245,7 @@
       <c r="B85" s="1">
         <v>2</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4201,7 +4256,7 @@
       <c r="B86" s="1">
         <v>2</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4212,7 +4267,7 @@
       <c r="B87" s="1">
         <v>2</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4223,7 +4278,7 @@
       <c r="B88" s="1">
         <v>2</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4234,7 +4289,7 @@
       <c r="B89" s="1">
         <v>2</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4245,7 +4300,7 @@
       <c r="B90" s="1">
         <v>2</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4256,7 +4311,7 @@
       <c r="B91" s="1">
         <v>2</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4267,7 +4322,7 @@
       <c r="B92" s="1">
         <v>2</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="4" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4278,7 +4333,7 @@
       <c r="B93" s="1">
         <v>2</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4289,7 +4344,7 @@
       <c r="B94" s="1">
         <v>2</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4300,7 +4355,7 @@
       <c r="B95" s="1">
         <v>2</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4311,7 +4366,7 @@
       <c r="B96" s="1">
         <v>2</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4322,7 +4377,7 @@
       <c r="B97" s="1">
         <v>2</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4333,7 +4388,7 @@
       <c r="B98" s="1">
         <v>2</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4344,7 +4399,7 @@
       <c r="B99" s="1">
         <v>2</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4355,7 +4410,7 @@
       <c r="B100" s="1">
         <v>2</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4366,7 +4421,7 @@
       <c r="B101" s="1">
         <v>2</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4377,7 +4432,7 @@
       <c r="B102" s="1">
         <v>2</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4388,7 +4443,7 @@
       <c r="B103" s="1">
         <v>2</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4399,7 +4454,7 @@
       <c r="B104" s="1">
         <v>2</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4410,7 +4465,7 @@
       <c r="B105" s="1">
         <v>2</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4421,7 +4476,7 @@
       <c r="B106" s="1">
         <v>2</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4432,7 +4487,7 @@
       <c r="B107" s="1">
         <v>2</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4443,7 +4498,7 @@
       <c r="B108" s="1">
         <v>2</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4454,7 +4509,7 @@
       <c r="B109" s="1">
         <v>2</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4465,7 +4520,7 @@
       <c r="B110" s="1">
         <v>2</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4476,7 +4531,7 @@
       <c r="B111" s="1">
         <v>2</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4487,7 +4542,7 @@
       <c r="B112" s="1">
         <v>2</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4498,7 +4553,7 @@
       <c r="B113" s="1">
         <v>2</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4509,7 +4564,7 @@
       <c r="B114" s="1">
         <v>2</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4520,7 +4575,7 @@
       <c r="B115" s="1">
         <v>3</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4531,7 +4586,7 @@
       <c r="B116" s="1">
         <v>3</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4542,7 +4597,7 @@
       <c r="B117" s="1">
         <v>3</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4553,7 +4608,7 @@
       <c r="B118" s="1">
         <v>3</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4564,7 +4619,7 @@
       <c r="B119" s="1">
         <v>3</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4575,7 +4630,7 @@
       <c r="B120" s="1">
         <v>3</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4586,7 +4641,7 @@
       <c r="B121" s="1">
         <v>3</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4597,7 +4652,7 @@
       <c r="B122" s="1">
         <v>3</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4608,7 +4663,7 @@
       <c r="B123" s="1">
         <v>3</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4619,7 +4674,7 @@
       <c r="B124" s="1">
         <v>3</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4630,7 +4685,7 @@
       <c r="B125" s="1">
         <v>3</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4641,7 +4696,7 @@
       <c r="B126" s="1">
         <v>3</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4652,7 +4707,7 @@
       <c r="B127" s="1">
         <v>3</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4663,7 +4718,7 @@
       <c r="B128" s="1">
         <v>3</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4674,7 +4729,7 @@
       <c r="B129" s="1">
         <v>3</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4685,7 +4740,7 @@
       <c r="B130" s="1">
         <v>3</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4696,7 +4751,7 @@
       <c r="B131" s="1">
         <v>3</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4707,7 +4762,7 @@
       <c r="B132" s="1">
         <v>3</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4718,7 +4773,7 @@
       <c r="B133" s="1">
         <v>3</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4729,7 +4784,7 @@
       <c r="B134" s="1">
         <v>3</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4740,7 +4795,7 @@
       <c r="B135" s="1">
         <v>3</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4751,7 +4806,7 @@
       <c r="B136" s="1">
         <v>3</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4762,7 +4817,7 @@
       <c r="B137" s="1">
         <v>3</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4773,7 +4828,7 @@
       <c r="B138" s="1">
         <v>3</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4784,7 +4839,7 @@
       <c r="B139" s="1">
         <v>3</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4795,7 +4850,7 @@
       <c r="B140" s="1">
         <v>3</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4806,7 +4861,7 @@
       <c r="B141" s="1">
         <v>3</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4817,7 +4872,7 @@
       <c r="B142" s="1">
         <v>3</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4828,7 +4883,7 @@
       <c r="B143" s="1">
         <v>4</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4839,7 +4894,7 @@
       <c r="B144" s="1">
         <v>4</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4850,7 +4905,7 @@
       <c r="B145" s="1">
         <v>4</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4861,7 +4916,7 @@
       <c r="B146" s="1">
         <v>4</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4872,7 +4927,7 @@
       <c r="B147" s="1">
         <v>4</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4883,7 +4938,7 @@
       <c r="B148" s="1">
         <v>4</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4894,7 +4949,7 @@
       <c r="B149" s="1">
         <v>4</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4905,7 +4960,7 @@
       <c r="B150" s="1">
         <v>4</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4916,7 +4971,7 @@
       <c r="B151" s="1">
         <v>4</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4927,7 +4982,7 @@
       <c r="B152" s="1">
         <v>4</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4938,7 +4993,7 @@
       <c r="B153" s="1">
         <v>4</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4949,7 +5004,7 @@
       <c r="B154" s="1">
         <v>4</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4960,7 +5015,7 @@
       <c r="B155" s="1">
         <v>4</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4971,7 +5026,7 @@
       <c r="B156" s="1">
         <v>4</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4982,7 +5037,7 @@
       <c r="B157" s="1">
         <v>4</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4993,7 +5048,7 @@
       <c r="B158" s="1">
         <v>4</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5004,7 +5059,7 @@
       <c r="B159" s="1">
         <v>4</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5015,7 +5070,7 @@
       <c r="B160" s="1">
         <v>4</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5026,7 +5081,7 @@
       <c r="B161" s="1">
         <v>4</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5037,7 +5092,7 @@
       <c r="B162" s="1">
         <v>4</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5048,7 +5103,7 @@
       <c r="B163" s="1">
         <v>4</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5059,7 +5114,7 @@
       <c r="B164" s="1">
         <v>4</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5070,7 +5125,7 @@
       <c r="B165" s="1">
         <v>4</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5081,7 +5136,7 @@
       <c r="B166" s="1">
         <v>4</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5092,7 +5147,7 @@
       <c r="B167" s="1">
         <v>4</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5103,7 +5158,7 @@
       <c r="B168" s="1">
         <v>4</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5114,7 +5169,7 @@
       <c r="B169" s="1">
         <v>4</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5125,7 +5180,7 @@
       <c r="B170" s="1">
         <v>4</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5136,7 +5191,7 @@
       <c r="B171" s="1">
         <v>4</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5147,7 +5202,7 @@
       <c r="B172" s="1">
         <v>4</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5158,7 +5213,7 @@
       <c r="B173" s="1">
         <v>4</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5169,7 +5224,7 @@
       <c r="B174" s="1">
         <v>4</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="4" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5180,7 +5235,7 @@
       <c r="B175" s="1">
         <v>4</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5191,7 +5246,7 @@
       <c r="B176" s="1">
         <v>4</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5202,7 +5257,7 @@
       <c r="B177" s="1">
         <v>5</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5213,7 +5268,7 @@
       <c r="B178" s="1">
         <v>5</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5224,7 +5279,7 @@
       <c r="B179" s="1">
         <v>5</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5235,7 +5290,7 @@
       <c r="B180" s="1">
         <v>5</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5246,7 +5301,7 @@
       <c r="B181" s="1">
         <v>5</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5257,7 +5312,7 @@
       <c r="B182" s="1">
         <v>5</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5268,7 +5323,7 @@
       <c r="B183" s="1">
         <v>5</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5279,7 +5334,7 @@
       <c r="B184" s="1">
         <v>5</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5290,7 +5345,7 @@
       <c r="B185" s="1">
         <v>5</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5301,7 +5356,7 @@
       <c r="B186" s="1">
         <v>5</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5312,7 +5367,7 @@
       <c r="B187" s="1">
         <v>5</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5323,7 +5378,7 @@
       <c r="B188" s="1">
         <v>5</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5334,7 +5389,7 @@
       <c r="B189" s="1">
         <v>5</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5345,7 +5400,7 @@
       <c r="B190" s="1">
         <v>5</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5356,7 +5411,7 @@
       <c r="B191" s="1">
         <v>5</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5367,7 +5422,7 @@
       <c r="B192" s="1">
         <v>5</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="4" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5378,7 +5433,7 @@
       <c r="B193" s="1">
         <v>5</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5389,7 +5444,7 @@
       <c r="B194" s="1">
         <v>5</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5400,7 +5455,7 @@
       <c r="B195" s="1">
         <v>5</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5411,7 +5466,7 @@
       <c r="B196" s="1">
         <v>5</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5422,7 +5477,7 @@
       <c r="B197" s="1">
         <v>5</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="4" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5433,7 +5488,7 @@
       <c r="B198" s="1">
         <v>5</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5444,7 +5499,7 @@
       <c r="B199" s="1">
         <v>5</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5455,7 +5510,7 @@
       <c r="B200" s="1">
         <v>5</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5466,7 +5521,7 @@
       <c r="B201" s="1">
         <v>5</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5477,7 +5532,7 @@
       <c r="B202" s="1">
         <v>5</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5488,7 +5543,7 @@
       <c r="B203" s="1">
         <v>5</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5499,7 +5554,7 @@
       <c r="B204" s="1">
         <v>6</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5510,7 +5565,7 @@
       <c r="B205" s="1">
         <v>6</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5521,7 +5576,7 @@
       <c r="B206" s="1">
         <v>6</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5532,7 +5587,7 @@
       <c r="B207" s="1">
         <v>6</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="4" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5543,7 +5598,7 @@
       <c r="B208" s="1">
         <v>6</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5554,7 +5609,7 @@
       <c r="B209" s="1">
         <v>6</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5565,7 +5620,7 @@
       <c r="B210" s="1">
         <v>6</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5576,7 +5631,7 @@
       <c r="B211" s="1">
         <v>6</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5587,7 +5642,7 @@
       <c r="B212" s="1">
         <v>6</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" s="4" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5598,7 +5653,7 @@
       <c r="B213" s="1">
         <v>6</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5609,7 +5664,7 @@
       <c r="B214" s="1">
         <v>6</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5620,7 +5675,7 @@
       <c r="B215" s="1">
         <v>6</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5631,7 +5686,7 @@
       <c r="B216" s="1">
         <v>6</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5642,7 +5697,7 @@
       <c r="B217" s="1">
         <v>6</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5653,7 +5708,7 @@
       <c r="B218" s="1">
         <v>6</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5664,7 +5719,7 @@
       <c r="B219" s="1">
         <v>6</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5675,7 +5730,7 @@
       <c r="B220" s="1">
         <v>6</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5686,7 +5741,7 @@
       <c r="B221" s="1">
         <v>6</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5697,7 +5752,7 @@
       <c r="B222" s="1">
         <v>6</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5708,7 +5763,7 @@
       <c r="B223" s="1">
         <v>6</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5719,7 +5774,7 @@
       <c r="B224" s="1">
         <v>6</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5730,7 +5785,7 @@
       <c r="B225" s="1">
         <v>6</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5741,7 +5796,7 @@
       <c r="B226" s="1">
         <v>6</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5752,7 +5807,7 @@
       <c r="B227" s="1">
         <v>6</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5763,7 +5818,7 @@
       <c r="B228" s="1">
         <v>6</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5774,7 +5829,7 @@
       <c r="B229" s="1">
         <v>7</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5785,7 +5840,7 @@
       <c r="B230" s="1">
         <v>7</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5796,7 +5851,7 @@
       <c r="B231" s="1">
         <v>7</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5807,7 +5862,7 @@
       <c r="B232" s="1">
         <v>7</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5818,7 +5873,7 @@
       <c r="B233" s="1">
         <v>7</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" s="4" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5829,7 +5884,7 @@
       <c r="B234" s="1">
         <v>7</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5840,7 +5895,7 @@
       <c r="B235" s="1">
         <v>7</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5851,7 +5906,7 @@
       <c r="B236" s="1">
         <v>7</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5862,7 +5917,7 @@
       <c r="B237" s="1">
         <v>7</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="4" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5873,7 +5928,7 @@
       <c r="B238" s="1">
         <v>7</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5884,7 +5939,7 @@
       <c r="B239" s="1">
         <v>7</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5895,7 +5950,7 @@
       <c r="B240" s="1">
         <v>7</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5906,7 +5961,7 @@
       <c r="B241" s="1">
         <v>7</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" s="4" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5917,7 +5972,7 @@
       <c r="B242" s="1">
         <v>7</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C242" s="4" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5928,7 +5983,7 @@
       <c r="B243" s="1">
         <v>7</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C243" s="4" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5939,7 +5994,7 @@
       <c r="B244" s="1">
         <v>7</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C244" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5950,7 +6005,7 @@
       <c r="B245" s="1">
         <v>7</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C245" s="4" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5961,7 +6016,7 @@
       <c r="B246" s="1">
         <v>7</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C246" s="4" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5972,7 +6027,7 @@
       <c r="B247" s="1">
         <v>7</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C247" s="4" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5983,7 +6038,7 @@
       <c r="B248" s="1">
         <v>7</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C248" s="4" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5994,7 +6049,7 @@
       <c r="B249" s="1">
         <v>7</v>
       </c>
-      <c r="C249" s="6" t="s">
+      <c r="C249" s="4" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6005,7 +6060,7 @@
       <c r="B250" s="1">
         <v>8</v>
       </c>
-      <c r="C250" s="6" t="s">
+      <c r="C250" s="4" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6016,7 +6071,7 @@
       <c r="B251" s="1">
         <v>8</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C251" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6027,7 +6082,7 @@
       <c r="B252" s="1">
         <v>8</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="4" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6038,7 +6093,7 @@
       <c r="B253" s="1">
         <v>8</v>
       </c>
-      <c r="C253" s="6" t="s">
+      <c r="C253" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6049,7 +6104,7 @@
       <c r="B254" s="1">
         <v>8</v>
       </c>
-      <c r="C254" s="6" t="s">
+      <c r="C254" s="4" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6060,7 +6115,7 @@
       <c r="B255" s="1">
         <v>8</v>
       </c>
-      <c r="C255" s="6" t="s">
+      <c r="C255" s="4" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6071,7 +6126,7 @@
       <c r="B256" s="1">
         <v>8</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C256" s="4" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6082,7 +6137,7 @@
       <c r="B257" s="1">
         <v>8</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C257" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6093,7 +6148,7 @@
       <c r="B258" s="1">
         <v>8</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C258" s="4" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6104,7 +6159,7 @@
       <c r="B259" s="1">
         <v>8</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C259" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6115,7 +6170,7 @@
       <c r="B260" s="1">
         <v>8</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C260" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6126,7 +6181,7 @@
       <c r="B261" s="1">
         <v>8</v>
       </c>
-      <c r="C261" s="6" t="s">
+      <c r="C261" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6137,7 +6192,7 @@
       <c r="B262" s="1">
         <v>8</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C262" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6148,7 +6203,7 @@
       <c r="B263" s="1">
         <v>8</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C263" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6159,7 +6214,7 @@
       <c r="B264" s="1">
         <v>8</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C264" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6170,7 +6225,7 @@
       <c r="B265" s="1">
         <v>8</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C265" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6181,7 +6236,7 @@
       <c r="B266" s="1">
         <v>8</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6192,7 +6247,7 @@
       <c r="B267" s="1">
         <v>8</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C267" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6203,7 +6258,7 @@
       <c r="B268" s="1">
         <v>8</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="C268" s="4" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6214,7 +6269,7 @@
       <c r="B269" s="1">
         <v>8</v>
       </c>
-      <c r="C269" s="6" t="s">
+      <c r="C269" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6225,7 +6280,7 @@
       <c r="B270" s="1">
         <v>8</v>
       </c>
-      <c r="C270" s="6" t="s">
+      <c r="C270" s="4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6236,7 +6291,7 @@
       <c r="B271" s="1">
         <v>8</v>
       </c>
-      <c r="C271" s="6" t="s">
+      <c r="C271" s="4" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6247,7 +6302,7 @@
       <c r="B272" s="1">
         <v>8</v>
       </c>
-      <c r="C272" s="6" t="s">
+      <c r="C272" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6258,7 +6313,7 @@
       <c r="B273" s="1">
         <v>8</v>
       </c>
-      <c r="C273" s="6" t="s">
+      <c r="C273" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6269,7 +6324,7 @@
       <c r="B274" s="1">
         <v>9</v>
       </c>
-      <c r="C274" s="6" t="s">
+      <c r="C274" s="4" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6280,7 +6335,7 @@
       <c r="B275" s="1">
         <v>9</v>
       </c>
-      <c r="C275" s="6" t="s">
+      <c r="C275" s="4" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6291,7 +6346,7 @@
       <c r="B276" s="1">
         <v>9</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C276" s="4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6302,7 +6357,7 @@
       <c r="B277" s="1">
         <v>9</v>
       </c>
-      <c r="C277" s="6" t="s">
+      <c r="C277" s="4" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6313,7 +6368,7 @@
       <c r="B278" s="1">
         <v>9</v>
       </c>
-      <c r="C278" s="6" t="s">
+      <c r="C278" s="4" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6324,7 +6379,7 @@
       <c r="B279" s="1">
         <v>9</v>
       </c>
-      <c r="C279" s="6" t="s">
+      <c r="C279" s="4" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6335,7 +6390,7 @@
       <c r="B280" s="1">
         <v>9</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="C280" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6346,7 +6401,7 @@
       <c r="B281" s="1">
         <v>9</v>
       </c>
-      <c r="C281" s="6" t="s">
+      <c r="C281" s="4" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6357,7 +6412,7 @@
       <c r="B282" s="1">
         <v>9</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C282" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6368,7 +6423,7 @@
       <c r="B283" s="1">
         <v>9</v>
       </c>
-      <c r="C283" s="6" t="s">
+      <c r="C283" s="4" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6379,7 +6434,7 @@
       <c r="B284" s="1">
         <v>9</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="C284" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6390,7 +6445,7 @@
       <c r="B285" s="1">
         <v>9</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="C285" s="4" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6401,7 +6456,7 @@
       <c r="B286" s="1">
         <v>9</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C286" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6412,7 +6467,7 @@
       <c r="B287" s="1">
         <v>9</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C287" s="4" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6423,7 +6478,7 @@
       <c r="B288" s="1">
         <v>9</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C288" s="4" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6434,7 +6489,7 @@
       <c r="B289" s="1">
         <v>9</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C289" s="4" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6445,7 +6500,7 @@
       <c r="B290" s="1">
         <v>9</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" s="4" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6456,7 +6511,7 @@
       <c r="B291" s="1">
         <v>9</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C291" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6467,7 +6522,7 @@
       <c r="B292" s="1">
         <v>9</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C292" s="4" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6478,7 +6533,7 @@
       <c r="B293" s="1">
         <v>10</v>
       </c>
-      <c r="C293" s="6" t="s">
+      <c r="C293" s="4" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6489,7 +6544,7 @@
       <c r="B294" s="1">
         <v>10</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="C294" s="4" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6500,7 +6555,7 @@
       <c r="B295" s="1">
         <v>10</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="C295" s="4" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6511,7 +6566,7 @@
       <c r="B296" s="1">
         <v>10</v>
       </c>
-      <c r="C296" s="6" t="s">
+      <c r="C296" s="4" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6522,7 +6577,7 @@
       <c r="B297" s="1">
         <v>10</v>
       </c>
-      <c r="C297" s="6" t="s">
+      <c r="C297" s="4" t="s">
         <v>301</v>
       </c>
     </row>
@@ -6533,7 +6588,7 @@
       <c r="B298" s="1">
         <v>10</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C298" s="4" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6544,7 +6599,7 @@
       <c r="B299" s="1">
         <v>10</v>
       </c>
-      <c r="C299" s="6" t="s">
+      <c r="C299" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -6555,7 +6610,7 @@
       <c r="B300" s="1">
         <v>10</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C300" s="4" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6566,7 +6621,7 @@
       <c r="B301" s="1">
         <v>10</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C301" s="4" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6577,7 +6632,7 @@
       <c r="B302" s="1">
         <v>10</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C302" s="4" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6588,7 +6643,7 @@
       <c r="B303" s="1">
         <v>10</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C303" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6599,7 +6654,7 @@
       <c r="B304" s="1">
         <v>10</v>
       </c>
-      <c r="C304" s="6" t="s">
+      <c r="C304" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6610,7 +6665,7 @@
       <c r="B305" s="1">
         <v>10</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C305" s="4" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6621,7 +6676,7 @@
       <c r="B306" s="1">
         <v>10</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C306" s="4" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6632,7 +6687,7 @@
       <c r="B307" s="1">
         <v>11</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C307" s="4" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6643,7 +6698,7 @@
       <c r="B308" s="1">
         <v>11</v>
       </c>
-      <c r="C308" s="6" t="s">
+      <c r="C308" s="4" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6654,7 +6709,7 @@
       <c r="B309" s="1">
         <v>11</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C309" s="4" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6665,7 +6720,7 @@
       <c r="B310" s="1">
         <v>11</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C310" s="4" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6676,7 +6731,7 @@
       <c r="B311" s="1">
         <v>11</v>
       </c>
-      <c r="C311" s="6" t="s">
+      <c r="C311" s="4" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6687,7 +6742,7 @@
       <c r="B312" s="1">
         <v>11</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C312" s="4" t="s">
         <v>316</v>
       </c>
     </row>
@@ -6698,7 +6753,7 @@
       <c r="B313" s="1">
         <v>12</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C313" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6709,7 +6764,7 @@
       <c r="B314" s="1">
         <v>12</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C314" s="4" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6720,7 +6775,7 @@
       <c r="B315" s="1">
         <v>12</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C315" s="4" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6731,7 +6786,7 @@
       <c r="B316" s="1">
         <v>12</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C316" s="4" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6742,7 +6797,7 @@
       <c r="B317" s="1">
         <v>12</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C317" s="4" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6753,7 +6808,7 @@
       <c r="B318" s="1">
         <v>12</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" s="4" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6764,7 +6819,7 @@
       <c r="B319" s="1">
         <v>12</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C319" s="4" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6775,7 +6830,7 @@
       <c r="B320" s="1">
         <v>12</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" s="4" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6786,7 +6841,7 @@
       <c r="B321" s="1">
         <v>12</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C321" s="4" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6797,7 +6852,7 @@
       <c r="B322" s="1">
         <v>12</v>
       </c>
-      <c r="C322" s="6" t="s">
+      <c r="C322" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6808,7 +6863,7 @@
       <c r="B323" s="1">
         <v>12</v>
       </c>
-      <c r="C323" s="6" t="s">
+      <c r="C323" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6819,7 +6874,7 @@
       <c r="B324" s="1">
         <v>12</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C324" s="4" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6830,7 +6885,7 @@
       <c r="B325" s="1">
         <v>12</v>
       </c>
-      <c r="C325" s="6" t="s">
+      <c r="C325" s="4" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6841,7 +6896,7 @@
       <c r="B326" s="1">
         <v>12</v>
       </c>
-      <c r="C326" s="6" t="s">
+      <c r="C326" s="4" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6852,7 +6907,7 @@
       <c r="B327" s="1">
         <v>12</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="C327" s="4" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6863,7 +6918,7 @@
       <c r="B328" s="1">
         <v>12</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" s="4" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6874,7 +6929,7 @@
       <c r="B329" s="1">
         <v>12</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C329" s="4" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6885,7 +6940,7 @@
       <c r="B330" s="1">
         <v>12</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C330" s="4" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6896,7 +6951,7 @@
       <c r="B331" s="1">
         <v>12</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C331" s="4" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6907,7 +6962,7 @@
       <c r="B332" s="1">
         <v>12</v>
       </c>
-      <c r="C332" s="6" t="s">
+      <c r="C332" s="4" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6918,7 +6973,7 @@
       <c r="B333" s="1">
         <v>12</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C333" s="4" t="s">
         <v>337</v>
       </c>
     </row>
@@ -6929,7 +6984,7 @@
       <c r="B334" s="1">
         <v>12</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C334" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6940,7 +6995,7 @@
       <c r="B335" s="1">
         <v>12</v>
       </c>
-      <c r="C335" s="6" t="s">
+      <c r="C335" s="4" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6951,7 +7006,7 @@
       <c r="B336" s="1">
         <v>12</v>
       </c>
-      <c r="C336" s="6" t="s">
+      <c r="C336" s="4" t="s">
         <v>340</v>
       </c>
     </row>
@@ -6962,7 +7017,7 @@
       <c r="B337" s="1">
         <v>12</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C337" s="4" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6973,7 +7028,7 @@
       <c r="B338" s="1">
         <v>12</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="C338" s="4" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6984,7 +7039,7 @@
       <c r="B339" s="1">
         <v>12</v>
       </c>
-      <c r="C339" s="6" t="s">
+      <c r="C339" s="4" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6995,7 +7050,7 @@
       <c r="B340" s="1">
         <v>12</v>
       </c>
-      <c r="C340" s="6" t="s">
+      <c r="C340" s="4" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7006,7 +7061,7 @@
       <c r="B341" s="1">
         <v>12</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C341" s="4" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7017,7 +7072,7 @@
       <c r="B342" s="1">
         <v>12</v>
       </c>
-      <c r="C342" s="6" t="s">
+      <c r="C342" s="4" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7028,7 +7083,7 @@
       <c r="B343" s="1">
         <v>12</v>
       </c>
-      <c r="C343" s="6" t="s">
+      <c r="C343" s="4" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7039,7 +7094,7 @@
       <c r="B344" s="1">
         <v>12</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C344" s="4" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7050,7 +7105,7 @@
       <c r="B345" s="1">
         <v>13</v>
       </c>
-      <c r="C345" s="6" t="s">
+      <c r="C345" s="4" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7061,7 +7116,7 @@
       <c r="B346" s="1">
         <v>13</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C346" s="4" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7072,7 +7127,7 @@
       <c r="B347" s="1">
         <v>13</v>
       </c>
-      <c r="C347" s="6" t="s">
+      <c r="C347" s="4" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7083,7 +7138,7 @@
       <c r="B348" s="1">
         <v>13</v>
       </c>
-      <c r="C348" s="6" t="s">
+      <c r="C348" s="4" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7094,7 +7149,7 @@
       <c r="B349" s="1">
         <v>13</v>
       </c>
-      <c r="C349" s="6" t="s">
+      <c r="C349" s="4" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7105,7 +7160,7 @@
       <c r="B350" s="1">
         <v>13</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C350" s="4" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7116,7 +7171,7 @@
       <c r="B351" s="1">
         <v>13</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C351" s="4" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7127,7 +7182,7 @@
       <c r="B352" s="1">
         <v>13</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" s="4" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7138,7 +7193,7 @@
       <c r="B353" s="1">
         <v>13</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C353" s="4" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7149,7 +7204,7 @@
       <c r="B354" s="1">
         <v>13</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C354" s="4" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7160,7 +7215,7 @@
       <c r="B355" s="1">
         <v>13</v>
       </c>
-      <c r="C355" s="6" t="s">
+      <c r="C355" s="4" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7171,7 +7226,7 @@
       <c r="B356" s="1">
         <v>13</v>
       </c>
-      <c r="C356" s="6" t="s">
+      <c r="C356" s="4" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7182,7 +7237,7 @@
       <c r="B357" s="1">
         <v>13</v>
       </c>
-      <c r="C357" s="6" t="s">
+      <c r="C357" s="4" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7193,7 +7248,7 @@
       <c r="B358" s="1">
         <v>13</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C358" s="4" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7204,7 +7259,7 @@
       <c r="B359" s="1">
         <v>13</v>
       </c>
-      <c r="C359" s="6" t="s">
+      <c r="C359" s="4" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7215,7 +7270,7 @@
       <c r="B360" s="1">
         <v>13</v>
       </c>
-      <c r="C360" s="6" t="s">
+      <c r="C360" s="4" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7226,7 +7281,7 @@
       <c r="B361" s="1">
         <v>13</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C361" s="4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7237,7 +7292,7 @@
       <c r="B362" s="1">
         <v>13</v>
       </c>
-      <c r="C362" s="6" t="s">
+      <c r="C362" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7248,7 +7303,7 @@
       <c r="B363" s="1">
         <v>13</v>
       </c>
-      <c r="C363" s="6" t="s">
+      <c r="C363" s="4" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7259,7 +7314,7 @@
       <c r="B364" s="1">
         <v>13</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C364" s="4" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7270,7 +7325,7 @@
       <c r="B365" s="1">
         <v>14</v>
       </c>
-      <c r="C365" s="6" t="s">
+      <c r="C365" s="4" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7281,7 +7336,7 @@
       <c r="B366" s="1">
         <v>14</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C366" s="4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7292,7 +7347,7 @@
       <c r="B367" s="1">
         <v>14</v>
       </c>
-      <c r="C367" s="6" t="s">
+      <c r="C367" s="4" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7303,7 +7358,7 @@
       <c r="B368" s="1">
         <v>14</v>
       </c>
-      <c r="C368" s="6" t="s">
+      <c r="C368" s="4" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7314,7 +7369,7 @@
       <c r="B369" s="1">
         <v>14</v>
       </c>
-      <c r="C369" s="6" t="s">
+      <c r="C369" s="4" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7325,7 +7380,7 @@
       <c r="B370" s="1">
         <v>14</v>
       </c>
-      <c r="C370" s="6" t="s">
+      <c r="C370" s="4" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7336,7 +7391,7 @@
       <c r="B371" s="1">
         <v>14</v>
       </c>
-      <c r="C371" s="6" t="s">
+      <c r="C371" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7347,7 +7402,7 @@
       <c r="B372" s="1">
         <v>14</v>
       </c>
-      <c r="C372" s="6" t="s">
+      <c r="C372" s="4" t="s">
         <v>376</v>
       </c>
     </row>
@@ -7358,7 +7413,7 @@
       <c r="B373" s="1">
         <v>14</v>
       </c>
-      <c r="C373" s="6" t="s">
+      <c r="C373" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7369,7 +7424,7 @@
       <c r="B374" s="1">
         <v>14</v>
       </c>
-      <c r="C374" s="6" t="s">
+      <c r="C374" s="4" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7380,7 +7435,7 @@
       <c r="B375" s="1">
         <v>14</v>
       </c>
-      <c r="C375" s="6" t="s">
+      <c r="C375" s="4" t="s">
         <v>379</v>
       </c>
     </row>
@@ -7391,7 +7446,7 @@
       <c r="B376" s="1">
         <v>14</v>
       </c>
-      <c r="C376" s="6" t="s">
+      <c r="C376" s="4" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7402,7 +7457,7 @@
       <c r="B377" s="1">
         <v>14</v>
       </c>
-      <c r="C377" s="6" t="s">
+      <c r="C377" s="4" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7413,7 +7468,7 @@
       <c r="B378" s="1">
         <v>14</v>
       </c>
-      <c r="C378" s="6" t="s">
+      <c r="C378" s="4" t="s">
         <v>382</v>
       </c>
     </row>
@@ -7424,7 +7479,7 @@
       <c r="B379" s="1">
         <v>14</v>
       </c>
-      <c r="C379" s="6" t="s">
+      <c r="C379" s="4" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7435,7 +7490,7 @@
       <c r="B380" s="1">
         <v>14</v>
       </c>
-      <c r="C380" s="6" t="s">
+      <c r="C380" s="4" t="s">
         <v>384</v>
       </c>
     </row>
@@ -7446,7 +7501,7 @@
       <c r="B381" s="1">
         <v>14</v>
       </c>
-      <c r="C381" s="6" t="s">
+      <c r="C381" s="4" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7457,7 +7512,7 @@
       <c r="B382" s="1">
         <v>14</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C382" s="4" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7468,7 +7523,7 @@
       <c r="B383" s="1">
         <v>14</v>
       </c>
-      <c r="C383" s="6" t="s">
+      <c r="C383" s="4" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7479,7 +7534,7 @@
       <c r="B384" s="1">
         <v>14</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="C384" s="4" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7490,7 +7545,7 @@
       <c r="B385" s="1">
         <v>14</v>
       </c>
-      <c r="C385" s="6" t="s">
+      <c r="C385" s="4" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7501,7 +7556,7 @@
       <c r="B386" s="1">
         <v>14</v>
       </c>
-      <c r="C386" s="6" t="s">
+      <c r="C386" s="4" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7512,7 +7567,7 @@
       <c r="B387" s="1">
         <v>14</v>
       </c>
-      <c r="C387" s="6" t="s">
+      <c r="C387" s="4" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7523,7 +7578,7 @@
       <c r="B388" s="1">
         <v>14</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="C388" s="4" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7534,7 +7589,7 @@
       <c r="B389" s="1">
         <v>14</v>
       </c>
-      <c r="C389" s="6" t="s">
+      <c r="C389" s="4" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7545,7 +7600,7 @@
       <c r="B390" s="1">
         <v>14</v>
       </c>
-      <c r="C390" s="6" t="s">
+      <c r="C390" s="4" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7556,7 +7611,7 @@
       <c r="B391" s="1">
         <v>14</v>
       </c>
-      <c r="C391" s="6" t="s">
+      <c r="C391" s="4" t="s">
         <v>395</v>
       </c>
     </row>
@@ -7567,7 +7622,7 @@
       <c r="B392" s="1">
         <v>14</v>
       </c>
-      <c r="C392" s="6" t="s">
+      <c r="C392" s="4" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7578,7 +7633,7 @@
       <c r="B393" s="1">
         <v>14</v>
       </c>
-      <c r="C393" s="6" t="s">
+      <c r="C393" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7589,7 +7644,7 @@
       <c r="B394" s="1">
         <v>14</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C394" s="4" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7600,7 +7655,7 @@
       <c r="B395" s="1">
         <v>14</v>
       </c>
-      <c r="C395" s="6" t="s">
+      <c r="C395" s="4" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7611,7 +7666,7 @@
       <c r="B396" s="1">
         <v>14</v>
       </c>
-      <c r="C396" s="6" t="s">
+      <c r="C396" s="4" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7622,7 +7677,7 @@
       <c r="B397" s="1">
         <v>14</v>
       </c>
-      <c r="C397" s="6" t="s">
+      <c r="C397" s="4" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7633,7 +7688,7 @@
       <c r="B398" s="1">
         <v>14</v>
       </c>
-      <c r="C398" s="6" t="s">
+      <c r="C398" s="4" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7644,7 +7699,7 @@
       <c r="B399" s="1">
         <v>14</v>
       </c>
-      <c r="C399" s="6" t="s">
+      <c r="C399" s="4" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7655,7 +7710,7 @@
       <c r="B400" s="1">
         <v>14</v>
       </c>
-      <c r="C400" s="6" t="s">
+      <c r="C400" s="4" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7666,7 +7721,7 @@
       <c r="B401" s="1">
         <v>14</v>
       </c>
-      <c r="C401" s="6" t="s">
+      <c r="C401" s="4" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7677,7 +7732,7 @@
       <c r="B402" s="1">
         <v>14</v>
       </c>
-      <c r="C402" s="6" t="s">
+      <c r="C402" s="4" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7688,7 +7743,7 @@
       <c r="B403" s="1">
         <v>14</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C403" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7699,7 +7754,7 @@
       <c r="B404" s="1">
         <v>14</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C404" s="4" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7710,7 +7765,7 @@
       <c r="B405" s="1">
         <v>14</v>
       </c>
-      <c r="C405" s="6" t="s">
+      <c r="C405" s="4" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7721,7 +7776,7 @@
       <c r="B406" s="1">
         <v>14</v>
       </c>
-      <c r="C406" s="6" t="s">
+      <c r="C406" s="4" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7732,7 +7787,7 @@
       <c r="B407" s="1">
         <v>14</v>
       </c>
-      <c r="C407" s="6" t="s">
+      <c r="C407" s="4" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7743,7 +7798,7 @@
       <c r="B408" s="1">
         <v>14</v>
       </c>
-      <c r="C408" s="6" t="s">
+      <c r="C408" s="4" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7754,7 +7809,7 @@
       <c r="B409" s="1">
         <v>14</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C409" s="4" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7765,7 +7820,7 @@
       <c r="B410" s="1">
         <v>14</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C410" s="4" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7776,7 +7831,7 @@
       <c r="B411" s="1">
         <v>14</v>
       </c>
-      <c r="C411" s="6" t="s">
+      <c r="C411" s="4" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7787,7 +7842,7 @@
       <c r="B412" s="1">
         <v>14</v>
       </c>
-      <c r="C412" s="6" t="s">
+      <c r="C412" s="4" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7798,7 +7853,7 @@
       <c r="B413" s="1">
         <v>14</v>
       </c>
-      <c r="C413" s="6" t="s">
+      <c r="C413" s="4" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7809,7 +7864,7 @@
       <c r="B414" s="1">
         <v>14</v>
       </c>
-      <c r="C414" s="6" t="s">
+      <c r="C414" s="4" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7820,7 +7875,7 @@
       <c r="B415" s="1">
         <v>14</v>
       </c>
-      <c r="C415" s="6" t="s">
+      <c r="C415" s="4" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7831,7 +7886,7 @@
       <c r="B416" s="1">
         <v>14</v>
       </c>
-      <c r="C416" s="6" t="s">
+      <c r="C416" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7842,7 +7897,7 @@
       <c r="B417" s="1">
         <v>14</v>
       </c>
-      <c r="C417" s="6" t="s">
+      <c r="C417" s="4" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7853,7 +7908,7 @@
       <c r="B418" s="1">
         <v>14</v>
       </c>
-      <c r="C418" s="6" t="s">
+      <c r="C418" s="4" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7864,7 +7919,7 @@
       <c r="B419" s="1">
         <v>14</v>
       </c>
-      <c r="C419" s="6" t="s">
+      <c r="C419" s="4" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7875,7 +7930,7 @@
       <c r="B420" s="1">
         <v>14</v>
       </c>
-      <c r="C420" s="6" t="s">
+      <c r="C420" s="4" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7886,7 +7941,7 @@
       <c r="B421" s="1">
         <v>14</v>
       </c>
-      <c r="C421" s="6" t="s">
+      <c r="C421" s="4" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7897,7 +7952,7 @@
       <c r="B422" s="1">
         <v>14</v>
       </c>
-      <c r="C422" s="6" t="s">
+      <c r="C422" s="4" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7908,7 +7963,7 @@
       <c r="B423" s="1">
         <v>14</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C423" s="4" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7919,7 +7974,7 @@
       <c r="B424" s="1">
         <v>14</v>
       </c>
-      <c r="C424" s="6" t="s">
+      <c r="C424" s="4" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7930,7 +7985,7 @@
       <c r="B425" s="1">
         <v>15</v>
       </c>
-      <c r="C425" s="6" t="s">
+      <c r="C425" s="4" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7941,7 +7996,7 @@
       <c r="B426" s="1">
         <v>15</v>
       </c>
-      <c r="C426" s="6" t="s">
+      <c r="C426" s="4" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7952,7 +8007,7 @@
       <c r="B427" s="1">
         <v>15</v>
       </c>
-      <c r="C427" s="6" t="s">
+      <c r="C427" s="4" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7963,7 +8018,7 @@
       <c r="B428" s="1">
         <v>15</v>
       </c>
-      <c r="C428" s="6" t="s">
+      <c r="C428" s="4" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7974,7 +8029,7 @@
       <c r="B429" s="1">
         <v>15</v>
       </c>
-      <c r="C429" s="6" t="s">
+      <c r="C429" s="4" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7985,7 +8040,7 @@
       <c r="B430" s="1">
         <v>15</v>
       </c>
-      <c r="C430" s="6" t="s">
+      <c r="C430" s="4" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7996,7 +8051,7 @@
       <c r="B431" s="1">
         <v>15</v>
       </c>
-      <c r="C431" s="6" t="s">
+      <c r="C431" s="4" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8007,7 +8062,7 @@
       <c r="B432" s="1">
         <v>15</v>
       </c>
-      <c r="C432" s="6" t="s">
+      <c r="C432" s="4" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8018,7 +8073,7 @@
       <c r="B433" s="1">
         <v>15</v>
       </c>
-      <c r="C433" s="6" t="s">
+      <c r="C433" s="4" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8029,7 +8084,7 @@
       <c r="B434" s="1">
         <v>15</v>
       </c>
-      <c r="C434" s="6" t="s">
+      <c r="C434" s="4" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8040,7 +8095,7 @@
       <c r="B435" s="1">
         <v>15</v>
       </c>
-      <c r="C435" s="6" t="s">
+      <c r="C435" s="4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8051,7 +8106,7 @@
       <c r="B436" s="1">
         <v>15</v>
       </c>
-      <c r="C436" s="6" t="s">
+      <c r="C436" s="4" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8062,7 +8117,7 @@
       <c r="B437" s="1">
         <v>15</v>
       </c>
-      <c r="C437" s="6" t="s">
+      <c r="C437" s="4" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8073,7 +8128,7 @@
       <c r="B438" s="1">
         <v>15</v>
       </c>
-      <c r="C438" s="6" t="s">
+      <c r="C438" s="4" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8084,7 +8139,7 @@
       <c r="B439" s="1">
         <v>15</v>
       </c>
-      <c r="C439" s="6" t="s">
+      <c r="C439" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8095,7 +8150,7 @@
       <c r="B440" s="1">
         <v>15</v>
       </c>
-      <c r="C440" s="6" t="s">
+      <c r="C440" s="4" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8106,7 +8161,7 @@
       <c r="B441" s="1">
         <v>15</v>
       </c>
-      <c r="C441" s="6" t="s">
+      <c r="C441" s="4" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8117,7 +8172,7 @@
       <c r="B442" s="1">
         <v>15</v>
       </c>
-      <c r="C442" s="6" t="s">
+      <c r="C442" s="4" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8128,7 +8183,7 @@
       <c r="B443" s="1">
         <v>15</v>
       </c>
-      <c r="C443" s="6" t="s">
+      <c r="C443" s="4" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8139,7 +8194,7 @@
       <c r="B444" s="1">
         <v>15</v>
       </c>
-      <c r="C444" s="6" t="s">
+      <c r="C444" s="4" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8150,7 +8205,7 @@
       <c r="B445" s="1">
         <v>15</v>
       </c>
-      <c r="C445" s="6" t="s">
+      <c r="C445" s="4" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8161,7 +8216,7 @@
       <c r="B446" s="1">
         <v>15</v>
       </c>
-      <c r="C446" s="6" t="s">
+      <c r="C446" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8172,7 +8227,7 @@
       <c r="B447" s="1">
         <v>15</v>
       </c>
-      <c r="C447" s="6" t="s">
+      <c r="C447" s="4" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8183,7 +8238,7 @@
       <c r="B448" s="1">
         <v>15</v>
       </c>
-      <c r="C448" s="6" t="s">
+      <c r="C448" s="4" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8194,7 +8249,7 @@
       <c r="B449" s="1">
         <v>15</v>
       </c>
-      <c r="C449" s="6" t="s">
+      <c r="C449" s="4" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8205,7 +8260,7 @@
       <c r="B450" s="1">
         <v>15</v>
       </c>
-      <c r="C450" s="6" t="s">
+      <c r="C450" s="4" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8216,7 +8271,7 @@
       <c r="B451" s="1">
         <v>15</v>
       </c>
-      <c r="C451" s="6" t="s">
+      <c r="C451" s="4" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8227,7 +8282,7 @@
       <c r="B452" s="1">
         <v>15</v>
       </c>
-      <c r="C452" s="6" t="s">
+      <c r="C452" s="4" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8238,7 +8293,7 @@
       <c r="B453" s="1">
         <v>15</v>
       </c>
-      <c r="C453" s="6" t="s">
+      <c r="C453" s="4" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8249,7 +8304,7 @@
       <c r="B454" s="1">
         <v>15</v>
       </c>
-      <c r="C454" s="6" t="s">
+      <c r="C454" s="4" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8260,7 +8315,7 @@
       <c r="B455" s="1">
         <v>15</v>
       </c>
-      <c r="C455" s="6" t="s">
+      <c r="C455" s="4" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8271,7 +8326,7 @@
       <c r="B456" s="1">
         <v>15</v>
       </c>
-      <c r="C456" s="6" t="s">
+      <c r="C456" s="4" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8282,7 +8337,7 @@
       <c r="B457" s="1">
         <v>15</v>
       </c>
-      <c r="C457" s="6" t="s">
+      <c r="C457" s="4" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8293,7 +8348,7 @@
       <c r="B458" s="1">
         <v>15</v>
       </c>
-      <c r="C458" s="6" t="s">
+      <c r="C458" s="4" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8304,7 +8359,7 @@
       <c r="B459" s="1">
         <v>15</v>
       </c>
-      <c r="C459" s="6" t="s">
+      <c r="C459" s="4" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8315,7 +8370,7 @@
       <c r="B460" s="1">
         <v>15</v>
       </c>
-      <c r="C460" s="6" t="s">
+      <c r="C460" s="4" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8326,7 +8381,7 @@
       <c r="B461" s="1">
         <v>15</v>
       </c>
-      <c r="C461" s="6" t="s">
+      <c r="C461" s="4" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8337,7 +8392,7 @@
       <c r="B462" s="1">
         <v>15</v>
       </c>
-      <c r="C462" s="6" t="s">
+      <c r="C462" s="4" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8348,7 +8403,7 @@
       <c r="B463" s="1">
         <v>15</v>
       </c>
-      <c r="C463" s="6" t="s">
+      <c r="C463" s="4" t="s">
         <v>467</v>
       </c>
     </row>
@@ -8359,7 +8414,7 @@
       <c r="B464" s="1">
         <v>16</v>
       </c>
-      <c r="C464" s="7" t="s">
+      <c r="C464" s="5" t="s">
         <v>468</v>
       </c>
     </row>
@@ -8370,7 +8425,7 @@
       <c r="B465" s="1">
         <v>16</v>
       </c>
-      <c r="C465" s="7" t="s">
+      <c r="C465" s="5" t="s">
         <v>469</v>
       </c>
     </row>
@@ -8381,7 +8436,7 @@
       <c r="B466" s="1">
         <v>16</v>
       </c>
-      <c r="C466" s="6" t="s">
+      <c r="C466" s="4" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8392,7 +8447,7 @@
       <c r="B467" s="1">
         <v>16</v>
       </c>
-      <c r="C467" s="6" t="s">
+      <c r="C467" s="4" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8403,7 +8458,7 @@
       <c r="B468" s="1">
         <v>16</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="C468" s="5" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8414,7 +8469,7 @@
       <c r="B469" s="1">
         <v>16</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C469" s="5" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8425,7 +8480,7 @@
       <c r="B470" s="1">
         <v>16</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="C470" s="5" t="s">
         <v>474</v>
       </c>
     </row>
@@ -8436,7 +8491,7 @@
       <c r="B471" s="1">
         <v>16</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="C471" s="5" t="s">
         <v>475</v>
       </c>
     </row>
@@ -8447,7 +8502,7 @@
       <c r="B472" s="1">
         <v>16</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="C472" s="5" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8458,7 +8513,7 @@
       <c r="B473" s="1">
         <v>16</v>
       </c>
-      <c r="C473" s="6" t="s">
+      <c r="C473" s="4" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8469,7 +8524,7 @@
       <c r="B474" s="1">
         <v>16</v>
       </c>
-      <c r="C474" s="7" t="s">
+      <c r="C474" s="5" t="s">
         <v>478</v>
       </c>
     </row>
@@ -8480,7 +8535,7 @@
       <c r="B475" s="1">
         <v>16</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="C475" s="5" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8491,7 +8546,7 @@
       <c r="B476" s="1">
         <v>16</v>
       </c>
-      <c r="C476" s="6" t="s">
+      <c r="C476" s="4" t="s">
         <v>480</v>
       </c>
     </row>
@@ -8502,7 +8557,7 @@
       <c r="B477" s="1">
         <v>16</v>
       </c>
-      <c r="C477" s="6" t="s">
+      <c r="C477" s="4" t="s">
         <v>481</v>
       </c>
     </row>
@@ -8513,7 +8568,7 @@
       <c r="B478" s="1">
         <v>16</v>
       </c>
-      <c r="C478" s="6" t="s">
+      <c r="C478" s="4" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8524,7 +8579,7 @@
       <c r="B479" s="1">
         <v>16</v>
       </c>
-      <c r="C479" s="6" t="s">
+      <c r="C479" s="4" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8535,7 +8590,7 @@
       <c r="B480" s="1">
         <v>16</v>
       </c>
-      <c r="C480" s="7" t="s">
+      <c r="C480" s="5" t="s">
         <v>484</v>
       </c>
     </row>
@@ -8546,7 +8601,7 @@
       <c r="B481" s="1">
         <v>16</v>
       </c>
-      <c r="C481" s="7" t="s">
+      <c r="C481" s="5" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8557,7 +8612,7 @@
       <c r="B482" s="1">
         <v>16</v>
       </c>
-      <c r="C482" s="7" t="s">
+      <c r="C482" s="5" t="s">
         <v>486</v>
       </c>
     </row>
@@ -8568,7 +8623,7 @@
       <c r="B483" s="1">
         <v>16</v>
       </c>
-      <c r="C483" s="6" t="s">
+      <c r="C483" s="4" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8579,7 +8634,7 @@
       <c r="B484" s="1">
         <v>16</v>
       </c>
-      <c r="C484" s="6" t="s">
+      <c r="C484" s="4" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8590,7 +8645,7 @@
       <c r="B485" s="1">
         <v>16</v>
       </c>
-      <c r="C485" s="6" t="s">
+      <c r="C485" s="4" t="s">
         <v>489</v>
       </c>
     </row>
@@ -8601,7 +8656,7 @@
       <c r="B486" s="1">
         <v>16</v>
       </c>
-      <c r="C486" s="6" t="s">
+      <c r="C486" s="4" t="s">
         <v>490</v>
       </c>
     </row>
@@ -8612,7 +8667,7 @@
       <c r="B487" s="1">
         <v>16</v>
       </c>
-      <c r="C487" s="6" t="s">
+      <c r="C487" s="4" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8623,7 +8678,7 @@
       <c r="B488" s="1">
         <v>16</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="C488" s="5" t="s">
         <v>492</v>
       </c>
     </row>
@@ -8634,7 +8689,7 @@
       <c r="B489" s="1">
         <v>16</v>
       </c>
-      <c r="C489" s="6" t="s">
+      <c r="C489" s="4" t="s">
         <v>493</v>
       </c>
     </row>
@@ -8645,7 +8700,7 @@
       <c r="B490" s="1">
         <v>17</v>
       </c>
-      <c r="C490" s="6" t="s">
+      <c r="C490" s="4" t="s">
         <v>494</v>
       </c>
     </row>
@@ -8656,7 +8711,7 @@
       <c r="B491" s="1">
         <v>17</v>
       </c>
-      <c r="C491" s="6" t="s">
+      <c r="C491" s="4" t="s">
         <v>495</v>
       </c>
     </row>
@@ -8667,7 +8722,7 @@
       <c r="B492" s="1">
         <v>17</v>
       </c>
-      <c r="C492" s="6" t="s">
+      <c r="C492" s="4" t="s">
         <v>496</v>
       </c>
     </row>
@@ -8678,7 +8733,7 @@
       <c r="B493" s="1">
         <v>17</v>
       </c>
-      <c r="C493" s="6" t="s">
+      <c r="C493" s="4" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8689,7 +8744,7 @@
       <c r="B494" s="1">
         <v>17</v>
       </c>
-      <c r="C494" s="6" t="s">
+      <c r="C494" s="4" t="s">
         <v>498</v>
       </c>
     </row>
@@ -8700,7 +8755,7 @@
       <c r="B495" s="1">
         <v>17</v>
       </c>
-      <c r="C495" s="6" t="s">
+      <c r="C495" s="4" t="s">
         <v>499</v>
       </c>
     </row>
@@ -8711,7 +8766,7 @@
       <c r="B496" s="1">
         <v>17</v>
       </c>
-      <c r="C496" s="6" t="s">
+      <c r="C496" s="4" t="s">
         <v>500</v>
       </c>
     </row>
@@ -8722,7 +8777,7 @@
       <c r="B497" s="1">
         <v>17</v>
       </c>
-      <c r="C497" s="6" t="s">
+      <c r="C497" s="4" t="s">
         <v>501</v>
       </c>
     </row>
@@ -8733,7 +8788,7 @@
       <c r="B498" s="1">
         <v>17</v>
       </c>
-      <c r="C498" s="6" t="s">
+      <c r="C498" s="4" t="s">
         <v>502</v>
       </c>
     </row>
@@ -8744,7 +8799,7 @@
       <c r="B499" s="1">
         <v>17</v>
       </c>
-      <c r="C499" s="6" t="s">
+      <c r="C499" s="4" t="s">
         <v>503</v>
       </c>
     </row>
@@ -8755,7 +8810,7 @@
       <c r="B500" s="1">
         <v>17</v>
       </c>
-      <c r="C500" s="6" t="s">
+      <c r="C500" s="4" t="s">
         <v>504</v>
       </c>
     </row>
@@ -8766,7 +8821,7 @@
       <c r="B501" s="1">
         <v>17</v>
       </c>
-      <c r="C501" s="6" t="s">
+      <c r="C501" s="4" t="s">
         <v>505</v>
       </c>
     </row>
@@ -8777,7 +8832,7 @@
       <c r="B502" s="1">
         <v>17</v>
       </c>
-      <c r="C502" s="6" t="s">
+      <c r="C502" s="4" t="s">
         <v>506</v>
       </c>
     </row>
@@ -8788,7 +8843,7 @@
       <c r="B503" s="1">
         <v>17</v>
       </c>
-      <c r="C503" s="6" t="s">
+      <c r="C503" s="4" t="s">
         <v>507</v>
       </c>
     </row>
@@ -8799,7 +8854,7 @@
       <c r="B504" s="1">
         <v>17</v>
       </c>
-      <c r="C504" s="6" t="s">
+      <c r="C504" s="4" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8810,7 +8865,7 @@
       <c r="B505" s="1">
         <v>17</v>
       </c>
-      <c r="C505" s="6" t="s">
+      <c r="C505" s="4" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8821,7 +8876,7 @@
       <c r="B506" s="1">
         <v>17</v>
       </c>
-      <c r="C506" s="6" t="s">
+      <c r="C506" s="4" t="s">
         <v>510</v>
       </c>
     </row>
@@ -8832,7 +8887,7 @@
       <c r="B507" s="1">
         <v>17</v>
       </c>
-      <c r="C507" s="6" t="s">
+      <c r="C507" s="4" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8843,7 +8898,7 @@
       <c r="B508" s="1">
         <v>17</v>
       </c>
-      <c r="C508" s="6" t="s">
+      <c r="C508" s="4" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8854,7 +8909,7 @@
       <c r="B509" s="1">
         <v>17</v>
       </c>
-      <c r="C509" s="6" t="s">
+      <c r="C509" s="4" t="s">
         <v>513</v>
       </c>
     </row>
@@ -8865,7 +8920,7 @@
       <c r="B510" s="1">
         <v>17</v>
       </c>
-      <c r="C510" s="6" t="s">
+      <c r="C510" s="4" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8876,7 +8931,7 @@
       <c r="B511" s="1">
         <v>17</v>
       </c>
-      <c r="C511" s="6" t="s">
+      <c r="C511" s="4" t="s">
         <v>515</v>
       </c>
     </row>
@@ -8887,7 +8942,7 @@
       <c r="B512" s="1">
         <v>17</v>
       </c>
-      <c r="C512" s="6" t="s">
+      <c r="C512" s="4" t="s">
         <v>516</v>
       </c>
     </row>
@@ -8898,7 +8953,7 @@
       <c r="B513" s="1">
         <v>17</v>
       </c>
-      <c r="C513" s="6" t="s">
+      <c r="C513" s="4" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8909,7 +8964,7 @@
       <c r="B514" s="1">
         <v>17</v>
       </c>
-      <c r="C514" s="6" t="s">
+      <c r="C514" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8920,7 +8975,7 @@
       <c r="B515" s="1">
         <v>17</v>
       </c>
-      <c r="C515" s="6" t="s">
+      <c r="C515" s="4" t="s">
         <v>519</v>
       </c>
     </row>
@@ -8931,7 +8986,7 @@
       <c r="B516" s="1">
         <v>17</v>
       </c>
-      <c r="C516" s="6" t="s">
+      <c r="C516" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8942,7 +8997,7 @@
       <c r="B517" s="1">
         <v>17</v>
       </c>
-      <c r="C517" s="6" t="s">
+      <c r="C517" s="4" t="s">
         <v>521</v>
       </c>
     </row>
@@ -8953,7 +9008,7 @@
       <c r="B518" s="1">
         <v>18</v>
       </c>
-      <c r="C518" s="7" t="s">
+      <c r="C518" s="5" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8964,7 +9019,7 @@
       <c r="B519" s="1">
         <v>18</v>
       </c>
-      <c r="C519" s="7" t="s">
+      <c r="C519" s="5" t="s">
         <v>523</v>
       </c>
     </row>
@@ -8975,7 +9030,7 @@
       <c r="B520" s="1">
         <v>18</v>
       </c>
-      <c r="C520" s="7" t="s">
+      <c r="C520" s="5" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8986,7 +9041,7 @@
       <c r="B521" s="1">
         <v>18</v>
       </c>
-      <c r="C521" s="7" t="s">
+      <c r="C521" s="5" t="s">
         <v>525</v>
       </c>
     </row>
@@ -8997,7 +9052,7 @@
       <c r="B522" s="1">
         <v>18</v>
       </c>
-      <c r="C522" s="7" t="s">
+      <c r="C522" s="5" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9008,7 +9063,7 @@
       <c r="B523" s="1">
         <v>18</v>
       </c>
-      <c r="C523" s="7" t="s">
+      <c r="C523" s="5" t="s">
         <v>527</v>
       </c>
     </row>
@@ -9019,7 +9074,7 @@
       <c r="B524" s="1">
         <v>18</v>
       </c>
-      <c r="C524" s="7" t="s">
+      <c r="C524" s="5" t="s">
         <v>528</v>
       </c>
     </row>
@@ -9030,7 +9085,7 @@
       <c r="B525" s="1">
         <v>18</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="C525" s="5" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9041,7 +9096,7 @@
       <c r="B526" s="1">
         <v>18</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="C526" s="5" t="s">
         <v>530</v>
       </c>
     </row>
@@ -9052,7 +9107,7 @@
       <c r="B527" s="1">
         <v>18</v>
       </c>
-      <c r="C527" s="7" t="s">
+      <c r="C527" s="5" t="s">
         <v>531</v>
       </c>
     </row>
@@ -9063,7 +9118,7 @@
       <c r="B528" s="1">
         <v>18</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="C528" s="5" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9074,7 +9129,7 @@
       <c r="B529" s="1">
         <v>18</v>
       </c>
-      <c r="C529" s="6" t="s">
+      <c r="C529" s="4" t="s">
         <v>533</v>
       </c>
     </row>
@@ -9085,7 +9140,7 @@
       <c r="B530" s="1">
         <v>18</v>
       </c>
-      <c r="C530" s="6" t="s">
+      <c r="C530" s="4" t="s">
         <v>534</v>
       </c>
     </row>
@@ -9096,7 +9151,7 @@
       <c r="B531" s="1">
         <v>18</v>
       </c>
-      <c r="C531" s="7" t="s">
+      <c r="C531" s="5" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9107,7 +9162,7 @@
       <c r="B532" s="1">
         <v>18</v>
       </c>
-      <c r="C532" s="7" t="s">
+      <c r="C532" s="5" t="s">
         <v>536</v>
       </c>
     </row>
@@ -9118,7 +9173,7 @@
       <c r="B533" s="1">
         <v>18</v>
       </c>
-      <c r="C533" s="7" t="s">
+      <c r="C533" s="5" t="s">
         <v>537</v>
       </c>
     </row>
@@ -9129,7 +9184,7 @@
       <c r="B534" s="1">
         <v>18</v>
       </c>
-      <c r="C534" s="7" t="s">
+      <c r="C534" s="5" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9140,7 +9195,7 @@
       <c r="B535" s="1">
         <v>18</v>
       </c>
-      <c r="C535" s="7" t="s">
+      <c r="C535" s="5" t="s">
         <v>539</v>
       </c>
     </row>
@@ -9151,7 +9206,7 @@
       <c r="B536" s="1">
         <v>18</v>
       </c>
-      <c r="C536" s="7" t="s">
+      <c r="C536" s="5" t="s">
         <v>540</v>
       </c>
     </row>
@@ -9162,7 +9217,7 @@
       <c r="B537" s="1">
         <v>18</v>
       </c>
-      <c r="C537" s="7" t="s">
+      <c r="C537" s="5" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9173,7 +9228,7 @@
       <c r="B538" s="1">
         <v>18</v>
       </c>
-      <c r="C538" s="7" t="s">
+      <c r="C538" s="5" t="s">
         <v>542</v>
       </c>
     </row>
@@ -9184,7 +9239,7 @@
       <c r="B539" s="1">
         <v>18</v>
       </c>
-      <c r="C539" s="7" t="s">
+      <c r="C539" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -9195,7 +9250,7 @@
       <c r="B540" s="1">
         <v>18</v>
       </c>
-      <c r="C540" s="7" t="s">
+      <c r="C540" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9206,7 +9261,7 @@
       <c r="B541" s="1">
         <v>18</v>
       </c>
-      <c r="C541" s="7" t="s">
+      <c r="C541" s="5" t="s">
         <v>545</v>
       </c>
     </row>
@@ -9217,7 +9272,7 @@
       <c r="B542" s="1">
         <v>18</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="C542" s="5" t="s">
         <v>546</v>
       </c>
     </row>
@@ -9228,7 +9283,7 @@
       <c r="B543" s="1">
         <v>18</v>
       </c>
-      <c r="C543" s="7" t="s">
+      <c r="C543" s="5" t="s">
         <v>547</v>
       </c>
     </row>
@@ -9239,7 +9294,7 @@
       <c r="B544" s="1">
         <v>18</v>
       </c>
-      <c r="C544" s="7" t="s">
+      <c r="C544" s="5" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9250,7 +9305,7 @@
       <c r="B545" s="1">
         <v>18</v>
       </c>
-      <c r="C545" s="7" t="s">
+      <c r="C545" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -9261,7 +9316,7 @@
       <c r="B546" s="1">
         <v>18</v>
       </c>
-      <c r="C546" s="7" t="s">
+      <c r="C546" s="5" t="s">
         <v>550</v>
       </c>
     </row>
@@ -9272,7 +9327,7 @@
       <c r="B547" s="1">
         <v>18</v>
       </c>
-      <c r="C547" s="7" t="s">
+      <c r="C547" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9283,7 +9338,7 @@
       <c r="B548" s="1">
         <v>18</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="C548" s="5" t="s">
         <v>552</v>
       </c>
     </row>
@@ -9294,7 +9349,7 @@
       <c r="B549" s="1">
         <v>18</v>
       </c>
-      <c r="C549" s="6" t="s">
+      <c r="C549" s="4" t="s">
         <v>553</v>
       </c>
     </row>
@@ -9305,7 +9360,7 @@
       <c r="B550" s="1">
         <v>18</v>
       </c>
-      <c r="C550" s="7" t="s">
+      <c r="C550" s="5" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9316,7 +9371,7 @@
       <c r="B551" s="1">
         <v>18</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="C551" s="5" t="s">
         <v>555</v>
       </c>
     </row>
@@ -9327,7 +9382,7 @@
       <c r="B552" s="1">
         <v>18</v>
       </c>
-      <c r="C552" s="7" t="s">
+      <c r="C552" s="5" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9338,7 +9393,7 @@
       <c r="B553" s="1">
         <v>18</v>
       </c>
-      <c r="C553" s="7" t="s">
+      <c r="C553" s="5" t="s">
         <v>557</v>
       </c>
     </row>
@@ -9349,7 +9404,7 @@
       <c r="B554" s="1">
         <v>19</v>
       </c>
-      <c r="C554" s="6" t="s">
+      <c r="C554" s="4" t="s">
         <v>558</v>
       </c>
     </row>
@@ -9360,7 +9415,7 @@
       <c r="B555" s="1">
         <v>19</v>
       </c>
-      <c r="C555" s="6" t="s">
+      <c r="C555" s="4" t="s">
         <v>559</v>
       </c>
     </row>
@@ -9371,7 +9426,7 @@
       <c r="B556" s="1">
         <v>19</v>
       </c>
-      <c r="C556" s="6" t="s">
+      <c r="C556" s="4" t="s">
         <v>560</v>
       </c>
     </row>
@@ -9382,7 +9437,7 @@
       <c r="B557" s="1">
         <v>19</v>
       </c>
-      <c r="C557" s="6" t="s">
+      <c r="C557" s="4" t="s">
         <v>561</v>
       </c>
     </row>
@@ -9393,7 +9448,7 @@
       <c r="B558" s="1">
         <v>19</v>
       </c>
-      <c r="C558" s="6" t="s">
+      <c r="C558" s="4" t="s">
         <v>562</v>
       </c>
     </row>
@@ -9404,7 +9459,7 @@
       <c r="B559" s="1">
         <v>19</v>
       </c>
-      <c r="C559" s="6" t="s">
+      <c r="C559" s="4" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9415,7 +9470,7 @@
       <c r="B560" s="1">
         <v>19</v>
       </c>
-      <c r="C560" s="6" t="s">
+      <c r="C560" s="4" t="s">
         <v>564</v>
       </c>
     </row>
@@ -9426,7 +9481,7 @@
       <c r="B561" s="1">
         <v>19</v>
       </c>
-      <c r="C561" s="6" t="s">
+      <c r="C561" s="4" t="s">
         <v>565</v>
       </c>
     </row>
@@ -9437,7 +9492,7 @@
       <c r="B562" s="1">
         <v>19</v>
       </c>
-      <c r="C562" s="6" t="s">
+      <c r="C562" s="4" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9448,7 +9503,7 @@
       <c r="B563" s="1">
         <v>19</v>
       </c>
-      <c r="C563" s="6" t="s">
+      <c r="C563" s="4" t="s">
         <v>567</v>
       </c>
     </row>
@@ -9459,7 +9514,7 @@
       <c r="B564" s="1">
         <v>19</v>
       </c>
-      <c r="C564" s="6" t="s">
+      <c r="C564" s="4" t="s">
         <v>568</v>
       </c>
     </row>
@@ -9470,7 +9525,7 @@
       <c r="B565" s="1">
         <v>19</v>
       </c>
-      <c r="C565" s="6" t="s">
+      <c r="C565" s="4" t="s">
         <v>569</v>
       </c>
     </row>
@@ -9481,7 +9536,7 @@
       <c r="B566" s="1">
         <v>19</v>
       </c>
-      <c r="C566" s="6" t="s">
+      <c r="C566" s="4" t="s">
         <v>570</v>
       </c>
     </row>
@@ -9492,7 +9547,7 @@
       <c r="B567" s="1">
         <v>19</v>
       </c>
-      <c r="C567" s="6" t="s">
+      <c r="C567" s="4" t="s">
         <v>571</v>
       </c>
     </row>
@@ -9503,7 +9558,7 @@
       <c r="B568" s="1">
         <v>20</v>
       </c>
-      <c r="C568" s="6" t="s">
+      <c r="C568" s="4" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9514,7 +9569,7 @@
       <c r="B569" s="1">
         <v>20</v>
       </c>
-      <c r="C569" s="6" t="s">
+      <c r="C569" s="4" t="s">
         <v>573</v>
       </c>
     </row>
@@ -9525,7 +9580,7 @@
       <c r="B570" s="1">
         <v>20</v>
       </c>
-      <c r="C570" s="6" t="s">
+      <c r="C570" s="4" t="s">
         <v>574</v>
       </c>
     </row>
@@ -9536,7 +9591,7 @@
       <c r="B571" s="1">
         <v>20</v>
       </c>
-      <c r="C571" s="6" t="s">
+      <c r="C571" s="4" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9547,7 +9602,7 @@
       <c r="B572" s="1">
         <v>20</v>
       </c>
-      <c r="C572" s="6" t="s">
+      <c r="C572" s="4" t="s">
         <v>576</v>
       </c>
     </row>
@@ -9558,7 +9613,7 @@
       <c r="B573" s="1">
         <v>20</v>
       </c>
-      <c r="C573" s="6" t="s">
+      <c r="C573" s="4" t="s">
         <v>577</v>
       </c>
     </row>
@@ -9569,7 +9624,7 @@
       <c r="B574" s="1">
         <v>20</v>
       </c>
-      <c r="C574" s="6" t="s">
+      <c r="C574" s="4" t="s">
         <v>578</v>
       </c>
     </row>
@@ -9580,7 +9635,7 @@
       <c r="B575" s="1">
         <v>20</v>
       </c>
-      <c r="C575" s="6" t="s">
+      <c r="C575" s="4" t="s">
         <v>579</v>
       </c>
     </row>
@@ -9591,7 +9646,7 @@
       <c r="B576" s="1">
         <v>20</v>
       </c>
-      <c r="C576" s="6" t="s">
+      <c r="C576" s="4" t="s">
         <v>580</v>
       </c>
     </row>
@@ -9602,7 +9657,7 @@
       <c r="B577" s="1">
         <v>20</v>
       </c>
-      <c r="C577" s="6" t="s">
+      <c r="C577" s="4" t="s">
         <v>581</v>
       </c>
     </row>
@@ -9613,7 +9668,7 @@
       <c r="B578" s="1">
         <v>20</v>
       </c>
-      <c r="C578" s="6" t="s">
+      <c r="C578" s="4" t="s">
         <v>582</v>
       </c>
     </row>
@@ -9624,7 +9679,7 @@
       <c r="B579" s="1">
         <v>20</v>
       </c>
-      <c r="C579" s="6" t="s">
+      <c r="C579" s="4" t="s">
         <v>583</v>
       </c>
     </row>
@@ -9635,7 +9690,7 @@
       <c r="B580" s="1">
         <v>20</v>
       </c>
-      <c r="C580" s="6" t="s">
+      <c r="C580" s="4" t="s">
         <v>584</v>
       </c>
     </row>
@@ -9646,7 +9701,7 @@
       <c r="B581" s="1">
         <v>21</v>
       </c>
-      <c r="C581" s="6" t="s">
+      <c r="C581" s="4" t="s">
         <v>585</v>
       </c>
     </row>
@@ -9657,7 +9712,7 @@
       <c r="B582" s="1">
         <v>21</v>
       </c>
-      <c r="C582" s="6" t="s">
+      <c r="C582" s="4" t="s">
         <v>586</v>
       </c>
     </row>
@@ -9668,7 +9723,7 @@
       <c r="B583" s="1">
         <v>21</v>
       </c>
-      <c r="C583" s="6" t="s">
+      <c r="C583" s="4" t="s">
         <v>587</v>
       </c>
     </row>
@@ -9679,7 +9734,7 @@
       <c r="B584" s="1">
         <v>21</v>
       </c>
-      <c r="C584" s="6" t="s">
+      <c r="C584" s="4" t="s">
         <v>588</v>
       </c>
     </row>
@@ -9690,7 +9745,7 @@
       <c r="B585" s="1">
         <v>21</v>
       </c>
-      <c r="C585" s="6" t="s">
+      <c r="C585" s="4" t="s">
         <v>589</v>
       </c>
     </row>
@@ -9701,7 +9756,7 @@
       <c r="B586" s="1">
         <v>21</v>
       </c>
-      <c r="C586" s="6" t="s">
+      <c r="C586" s="4" t="s">
         <v>590</v>
       </c>
     </row>
@@ -9712,7 +9767,7 @@
       <c r="B587" s="1">
         <v>21</v>
       </c>
-      <c r="C587" s="6" t="s">
+      <c r="C587" s="4" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9723,7 +9778,7 @@
       <c r="B588" s="1">
         <v>21</v>
       </c>
-      <c r="C588" s="6" t="s">
+      <c r="C588" s="4" t="s">
         <v>592</v>
       </c>
     </row>
@@ -9734,7 +9789,7 @@
       <c r="B589" s="1">
         <v>21</v>
       </c>
-      <c r="C589" s="6" t="s">
+      <c r="C589" s="4" t="s">
         <v>593</v>
       </c>
     </row>
@@ -9745,7 +9800,7 @@
       <c r="B590" s="1">
         <v>22</v>
       </c>
-      <c r="C590" s="6" t="s">
+      <c r="C590" s="4" t="s">
         <v>594</v>
       </c>
     </row>
@@ -9756,7 +9811,7 @@
       <c r="B591" s="1">
         <v>22</v>
       </c>
-      <c r="C591" s="6" t="s">
+      <c r="C591" s="4" t="s">
         <v>595</v>
       </c>
     </row>
@@ -9767,7 +9822,7 @@
       <c r="B592" s="1">
         <v>22</v>
       </c>
-      <c r="C592" s="6" t="s">
+      <c r="C592" s="4" t="s">
         <v>596</v>
       </c>
     </row>
@@ -9778,7 +9833,7 @@
       <c r="B593" s="1">
         <v>22</v>
       </c>
-      <c r="C593" s="6" t="s">
+      <c r="C593" s="4" t="s">
         <v>597</v>
       </c>
     </row>
@@ -9789,7 +9844,7 @@
       <c r="B594" s="1">
         <v>22</v>
       </c>
-      <c r="C594" s="6" t="s">
+      <c r="C594" s="4" t="s">
         <v>598</v>
       </c>
     </row>
@@ -9800,7 +9855,7 @@
       <c r="B595" s="1">
         <v>22</v>
       </c>
-      <c r="C595" s="6" t="s">
+      <c r="C595" s="4" t="s">
         <v>599</v>
       </c>
     </row>
@@ -9811,7 +9866,7 @@
       <c r="B596" s="1">
         <v>22</v>
       </c>
-      <c r="C596" s="6" t="s">
+      <c r="C596" s="4" t="s">
         <v>600</v>
       </c>
     </row>
@@ -9822,7 +9877,7 @@
       <c r="B597" s="1">
         <v>22</v>
       </c>
-      <c r="C597" s="6" t="s">
+      <c r="C597" s="4" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9833,7 +9888,7 @@
       <c r="B598" s="1">
         <v>22</v>
       </c>
-      <c r="C598" s="6" t="s">
+      <c r="C598" s="4" t="s">
         <v>602</v>
       </c>
     </row>
@@ -9844,7 +9899,7 @@
       <c r="B599" s="1">
         <v>22</v>
       </c>
-      <c r="C599" s="6" t="s">
+      <c r="C599" s="4" t="s">
         <v>603</v>
       </c>
     </row>
@@ -9855,7 +9910,7 @@
       <c r="B600" s="1">
         <v>22</v>
       </c>
-      <c r="C600" s="6" t="s">
+      <c r="C600" s="4" t="s">
         <v>604</v>
       </c>
     </row>
@@ -9866,7 +9921,7 @@
       <c r="B601" s="1">
         <v>22</v>
       </c>
-      <c r="C601" s="6" t="s">
+      <c r="C601" s="4" t="s">
         <v>605</v>
       </c>
     </row>
@@ -9877,7 +9932,7 @@
       <c r="B602" s="1">
         <v>22</v>
       </c>
-      <c r="C602" s="6" t="s">
+      <c r="C602" s="4" t="s">
         <v>606</v>
       </c>
     </row>
@@ -9888,7 +9943,7 @@
       <c r="B603" s="1">
         <v>22</v>
       </c>
-      <c r="C603" s="6" t="s">
+      <c r="C603" s="4" t="s">
         <v>607</v>
       </c>
     </row>
@@ -9899,7 +9954,7 @@
       <c r="B604" s="1">
         <v>22</v>
       </c>
-      <c r="C604" s="6" t="s">
+      <c r="C604" s="4" t="s">
         <v>608</v>
       </c>
     </row>
@@ -9910,7 +9965,7 @@
       <c r="B605" s="1">
         <v>22</v>
       </c>
-      <c r="C605" s="6" t="s">
+      <c r="C605" s="4" t="s">
         <v>609</v>
       </c>
     </row>
@@ -9921,7 +9976,7 @@
       <c r="B606" s="1">
         <v>22</v>
       </c>
-      <c r="C606" s="6" t="s">
+      <c r="C606" s="4" t="s">
         <v>610</v>
       </c>
     </row>
@@ -9932,7 +9987,7 @@
       <c r="B607" s="1">
         <v>22</v>
       </c>
-      <c r="C607" s="6" t="s">
+      <c r="C607" s="4" t="s">
         <v>611</v>
       </c>
     </row>
@@ -9943,7 +9998,7 @@
       <c r="B608" s="1">
         <v>22</v>
       </c>
-      <c r="C608" s="6" t="s">
+      <c r="C608" s="4" t="s">
         <v>612</v>
       </c>
     </row>
@@ -9954,7 +10009,7 @@
       <c r="B609" s="1">
         <v>22</v>
       </c>
-      <c r="C609" s="6" t="s">
+      <c r="C609" s="4" t="s">
         <v>613</v>
       </c>
     </row>
@@ -9965,7 +10020,7 @@
       <c r="B610" s="1">
         <v>22</v>
       </c>
-      <c r="C610" s="6" t="s">
+      <c r="C610" s="4" t="s">
         <v>614</v>
       </c>
     </row>
@@ -9976,7 +10031,7 @@
       <c r="B611" s="1">
         <v>22</v>
       </c>
-      <c r="C611" s="6" t="s">
+      <c r="C611" s="4" t="s">
         <v>615</v>
       </c>
     </row>
@@ -9987,7 +10042,7 @@
       <c r="B612" s="1">
         <v>22</v>
       </c>
-      <c r="C612" s="6" t="s">
+      <c r="C612" s="4" t="s">
         <v>616</v>
       </c>
     </row>
@@ -9998,7 +10053,7 @@
       <c r="B613" s="1">
         <v>22</v>
       </c>
-      <c r="C613" s="6" t="s">
+      <c r="C613" s="4" t="s">
         <v>617</v>
       </c>
     </row>
@@ -10009,7 +10064,7 @@
       <c r="B614" s="1">
         <v>22</v>
       </c>
-      <c r="C614" s="6" t="s">
+      <c r="C614" s="4" t="s">
         <v>618</v>
       </c>
     </row>
@@ -10020,7 +10075,7 @@
       <c r="B615" s="1">
         <v>22</v>
       </c>
-      <c r="C615" s="6" t="s">
+      <c r="C615" s="4" t="s">
         <v>619</v>
       </c>
     </row>
@@ -10031,7 +10086,7 @@
       <c r="B616" s="1">
         <v>22</v>
       </c>
-      <c r="C616" s="6" t="s">
+      <c r="C616" s="4" t="s">
         <v>620</v>
       </c>
     </row>
@@ -10042,7 +10097,7 @@
       <c r="B617" s="1">
         <v>22</v>
       </c>
-      <c r="C617" s="6" t="s">
+      <c r="C617" s="4" t="s">
         <v>621</v>
       </c>
     </row>
@@ -10053,7 +10108,7 @@
       <c r="B618" s="1">
         <v>22</v>
       </c>
-      <c r="C618" s="6" t="s">
+      <c r="C618" s="4" t="s">
         <v>622</v>
       </c>
     </row>
@@ -10064,7 +10119,7 @@
       <c r="B619" s="1">
         <v>22</v>
       </c>
-      <c r="C619" s="6" t="s">
+      <c r="C619" s="4" t="s">
         <v>623</v>
       </c>
     </row>
@@ -10075,7 +10130,7 @@
       <c r="B620" s="1">
         <v>22</v>
       </c>
-      <c r="C620" s="6" t="s">
+      <c r="C620" s="4" t="s">
         <v>624</v>
       </c>
     </row>
@@ -10086,7 +10141,7 @@
       <c r="B621" s="1">
         <v>22</v>
       </c>
-      <c r="C621" s="6" t="s">
+      <c r="C621" s="4" t="s">
         <v>625</v>
       </c>
     </row>
@@ -10097,7 +10152,7 @@
       <c r="B622" s="1">
         <v>22</v>
       </c>
-      <c r="C622" s="6" t="s">
+      <c r="C622" s="4" t="s">
         <v>626</v>
       </c>
     </row>
@@ -10108,7 +10163,7 @@
       <c r="B623" s="1">
         <v>22</v>
       </c>
-      <c r="C623" s="6" t="s">
+      <c r="C623" s="4" t="s">
         <v>627</v>
       </c>
     </row>
@@ -10119,7 +10174,7 @@
       <c r="B624" s="1">
         <v>22</v>
       </c>
-      <c r="C624" s="6" t="s">
+      <c r="C624" s="4" t="s">
         <v>628</v>
       </c>
     </row>
@@ -10130,7 +10185,7 @@
       <c r="B625" s="1">
         <v>22</v>
       </c>
-      <c r="C625" s="6" t="s">
+      <c r="C625" s="4" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10141,7 +10196,7 @@
       <c r="B626" s="1">
         <v>22</v>
       </c>
-      <c r="C626" s="6" t="s">
+      <c r="C626" s="4" t="s">
         <v>630</v>
       </c>
     </row>
@@ -10152,7 +10207,7 @@
       <c r="B627" s="1">
         <v>22</v>
       </c>
-      <c r="C627" s="6" t="s">
+      <c r="C627" s="4" t="s">
         <v>631</v>
       </c>
     </row>
@@ -10163,7 +10218,7 @@
       <c r="B628" s="1">
         <v>22</v>
       </c>
-      <c r="C628" s="6" t="s">
+      <c r="C628" s="4" t="s">
         <v>632</v>
       </c>
     </row>
@@ -10174,7 +10229,7 @@
       <c r="B629" s="1">
         <v>22</v>
       </c>
-      <c r="C629" s="6" t="s">
+      <c r="C629" s="4" t="s">
         <v>633</v>
       </c>
     </row>
@@ -10185,7 +10240,7 @@
       <c r="B630" s="1">
         <v>22</v>
       </c>
-      <c r="C630" s="6" t="s">
+      <c r="C630" s="4" t="s">
         <v>634</v>
       </c>
     </row>
@@ -10196,7 +10251,7 @@
       <c r="B631" s="1">
         <v>22</v>
       </c>
-      <c r="C631" s="6" t="s">
+      <c r="C631" s="4" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10207,7 +10262,7 @@
       <c r="B632" s="1">
         <v>22</v>
       </c>
-      <c r="C632" s="6" t="s">
+      <c r="C632" s="4" t="s">
         <v>636</v>
       </c>
     </row>
@@ -10218,7 +10273,7 @@
       <c r="B633" s="1">
         <v>22</v>
       </c>
-      <c r="C633" s="6" t="s">
+      <c r="C633" s="4" t="s">
         <v>637</v>
       </c>
     </row>
@@ -10229,7 +10284,7 @@
       <c r="B634" s="1">
         <v>22</v>
       </c>
-      <c r="C634" s="6" t="s">
+      <c r="C634" s="4" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10240,7 +10295,7 @@
       <c r="B635" s="1">
         <v>22</v>
       </c>
-      <c r="C635" s="6" t="s">
+      <c r="C635" s="4" t="s">
         <v>639</v>
       </c>
     </row>
@@ -10251,7 +10306,7 @@
       <c r="B636" s="1">
         <v>22</v>
       </c>
-      <c r="C636" s="6" t="s">
+      <c r="C636" s="4" t="s">
         <v>640</v>
       </c>
     </row>
@@ -10262,7 +10317,7 @@
       <c r="B637" s="1">
         <v>22</v>
       </c>
-      <c r="C637" s="6" t="s">
+      <c r="C637" s="4" t="s">
         <v>641</v>
       </c>
     </row>
@@ -10273,7 +10328,7 @@
       <c r="B638" s="1">
         <v>22</v>
       </c>
-      <c r="C638" s="6" t="s">
+      <c r="C638" s="4" t="s">
         <v>642</v>
       </c>
     </row>
@@ -10284,7 +10339,7 @@
       <c r="B639" s="1">
         <v>22</v>
       </c>
-      <c r="C639" s="6" t="s">
+      <c r="C639" s="4" t="s">
         <v>643</v>
       </c>
     </row>
@@ -10295,7 +10350,7 @@
       <c r="B640" s="1">
         <v>22</v>
       </c>
-      <c r="C640" s="6" t="s">
+      <c r="C640" s="4" t="s">
         <v>644</v>
       </c>
     </row>
@@ -10306,7 +10361,7 @@
       <c r="B641" s="1">
         <v>22</v>
       </c>
-      <c r="C641" s="6" t="s">
+      <c r="C641" s="4" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10317,7 +10372,7 @@
       <c r="B642" s="1">
         <v>22</v>
       </c>
-      <c r="C642" s="6" t="s">
+      <c r="C642" s="4" t="s">
         <v>646</v>
       </c>
     </row>
@@ -10328,7 +10383,7 @@
       <c r="B643" s="1">
         <v>22</v>
       </c>
-      <c r="C643" s="6" t="s">
+      <c r="C643" s="4" t="s">
         <v>647</v>
       </c>
     </row>
@@ -10339,7 +10394,7 @@
       <c r="B644" s="1">
         <v>22</v>
       </c>
-      <c r="C644" s="6" t="s">
+      <c r="C644" s="4" t="s">
         <v>648</v>
       </c>
     </row>
@@ -10350,7 +10405,7 @@
       <c r="B645" s="1">
         <v>22</v>
       </c>
-      <c r="C645" s="6" t="s">
+      <c r="C645" s="4" t="s">
         <v>649</v>
       </c>
     </row>
@@ -10361,7 +10416,7 @@
       <c r="B646" s="1">
         <v>22</v>
       </c>
-      <c r="C646" s="6" t="s">
+      <c r="C646" s="4" t="s">
         <v>650</v>
       </c>
     </row>
@@ -10372,7 +10427,7 @@
       <c r="B647" s="1">
         <v>22</v>
       </c>
-      <c r="C647" s="6" t="s">
+      <c r="C647" s="4" t="s">
         <v>651</v>
       </c>
     </row>
@@ -10383,7 +10438,7 @@
       <c r="B648" s="1">
         <v>22</v>
       </c>
-      <c r="C648" s="6" t="s">
+      <c r="C648" s="4" t="s">
         <v>652</v>
       </c>
     </row>
@@ -10394,7 +10449,7 @@
       <c r="B649" s="1">
         <v>22</v>
       </c>
-      <c r="C649" s="6" t="s">
+      <c r="C649" s="4" t="s">
         <v>653</v>
       </c>
     </row>
@@ -10405,7 +10460,7 @@
       <c r="B650" s="1">
         <v>22</v>
       </c>
-      <c r="C650" s="6" t="s">
+      <c r="C650" s="4" t="s">
         <v>654</v>
       </c>
     </row>
@@ -10416,7 +10471,7 @@
       <c r="B651" s="1">
         <v>22</v>
       </c>
-      <c r="C651" s="6" t="s">
+      <c r="C651" s="4" t="s">
         <v>655</v>
       </c>
     </row>
@@ -10427,7 +10482,7 @@
       <c r="B652" s="1">
         <v>22</v>
       </c>
-      <c r="C652" s="6" t="s">
+      <c r="C652" s="4" t="s">
         <v>656</v>
       </c>
     </row>
@@ -10438,7 +10493,7 @@
       <c r="B653" s="1">
         <v>22</v>
       </c>
-      <c r="C653" s="6" t="s">
+      <c r="C653" s="4" t="s">
         <v>657</v>
       </c>
     </row>
@@ -10449,7 +10504,7 @@
       <c r="B654" s="1">
         <v>22</v>
       </c>
-      <c r="C654" s="6" t="s">
+      <c r="C654" s="4" t="s">
         <v>658</v>
       </c>
     </row>
@@ -10460,7 +10515,7 @@
       <c r="B655" s="1">
         <v>22</v>
       </c>
-      <c r="C655" s="6" t="s">
+      <c r="C655" s="4" t="s">
         <v>659</v>
       </c>
     </row>
@@ -10471,7 +10526,7 @@
       <c r="B656" s="1">
         <v>22</v>
       </c>
-      <c r="C656" s="6" t="s">
+      <c r="C656" s="4" t="s">
         <v>660</v>
       </c>
     </row>
@@ -10482,7 +10537,7 @@
       <c r="B657" s="1">
         <v>22</v>
       </c>
-      <c r="C657" s="6" t="s">
+      <c r="C657" s="4" t="s">
         <v>661</v>
       </c>
     </row>
@@ -10493,7 +10548,7 @@
       <c r="B658" s="1">
         <v>22</v>
       </c>
-      <c r="C658" s="6" t="s">
+      <c r="C658" s="4" t="s">
         <v>662</v>
       </c>
     </row>
@@ -10504,7 +10559,7 @@
       <c r="B659" s="1">
         <v>22</v>
       </c>
-      <c r="C659" s="6" t="s">
+      <c r="C659" s="4" t="s">
         <v>663</v>
       </c>
     </row>
@@ -10515,7 +10570,7 @@
       <c r="B660" s="1">
         <v>22</v>
       </c>
-      <c r="C660" s="6" t="s">
+      <c r="C660" s="4" t="s">
         <v>664</v>
       </c>
     </row>
@@ -10526,7 +10581,7 @@
       <c r="B661" s="1">
         <v>22</v>
       </c>
-      <c r="C661" s="6" t="s">
+      <c r="C661" s="4" t="s">
         <v>665</v>
       </c>
     </row>
@@ -10537,7 +10592,7 @@
       <c r="B662" s="1">
         <v>22</v>
       </c>
-      <c r="C662" s="6" t="s">
+      <c r="C662" s="4" t="s">
         <v>666</v>
       </c>
     </row>
@@ -10548,7 +10603,7 @@
       <c r="B663" s="1">
         <v>22</v>
       </c>
-      <c r="C663" s="6" t="s">
+      <c r="C663" s="4" t="s">
         <v>667</v>
       </c>
     </row>
@@ -10559,7 +10614,7 @@
       <c r="B664" s="1">
         <v>22</v>
       </c>
-      <c r="C664" s="6" t="s">
+      <c r="C664" s="4" t="s">
         <v>668</v>
       </c>
     </row>
@@ -10570,7 +10625,7 @@
       <c r="B665" s="1">
         <v>22</v>
       </c>
-      <c r="C665" s="6" t="s">
+      <c r="C665" s="4" t="s">
         <v>669</v>
       </c>
     </row>
@@ -10581,7 +10636,7 @@
       <c r="B666" s="1">
         <v>22</v>
       </c>
-      <c r="C666" s="6" t="s">
+      <c r="C666" s="4" t="s">
         <v>670</v>
       </c>
     </row>
@@ -10592,7 +10647,7 @@
       <c r="B667" s="1">
         <v>22</v>
       </c>
-      <c r="C667" s="6" t="s">
+      <c r="C667" s="4" t="s">
         <v>671</v>
       </c>
     </row>
@@ -10603,7 +10658,7 @@
       <c r="B668" s="1">
         <v>22</v>
       </c>
-      <c r="C668" s="6" t="s">
+      <c r="C668" s="4" t="s">
         <v>672</v>
       </c>
     </row>
@@ -10614,7 +10669,7 @@
       <c r="B669" s="1">
         <v>22</v>
       </c>
-      <c r="C669" s="6" t="s">
+      <c r="C669" s="4" t="s">
         <v>673</v>
       </c>
     </row>
@@ -10625,7 +10680,7 @@
       <c r="B670" s="1">
         <v>22</v>
       </c>
-      <c r="C670" s="6" t="s">
+      <c r="C670" s="4" t="s">
         <v>674</v>
       </c>
     </row>
@@ -10636,7 +10691,7 @@
       <c r="B671" s="1">
         <v>22</v>
       </c>
-      <c r="C671" s="6" t="s">
+      <c r="C671" s="4" t="s">
         <v>675</v>
       </c>
     </row>
@@ -10647,7 +10702,7 @@
       <c r="B672" s="1">
         <v>22</v>
       </c>
-      <c r="C672" s="6" t="s">
+      <c r="C672" s="4" t="s">
         <v>676</v>
       </c>
     </row>
@@ -10658,7 +10713,7 @@
       <c r="B673" s="1">
         <v>22</v>
       </c>
-      <c r="C673" s="6" t="s">
+      <c r="C673" s="4" t="s">
         <v>677</v>
       </c>
     </row>
@@ -10669,7 +10724,7 @@
       <c r="B674" s="1">
         <v>22</v>
       </c>
-      <c r="C674" s="6" t="s">
+      <c r="C674" s="4" t="s">
         <v>678</v>
       </c>
     </row>
@@ -10680,7 +10735,7 @@
       <c r="B675" s="1">
         <v>22</v>
       </c>
-      <c r="C675" s="6" t="s">
+      <c r="C675" s="4" t="s">
         <v>679</v>
       </c>
     </row>
@@ -10691,7 +10746,7 @@
       <c r="B676" s="1">
         <v>22</v>
       </c>
-      <c r="C676" s="6" t="s">
+      <c r="C676" s="4" t="s">
         <v>680</v>
       </c>
     </row>
@@ -10702,7 +10757,7 @@
       <c r="B677" s="1">
         <v>22</v>
       </c>
-      <c r="C677" s="6" t="s">
+      <c r="C677" s="4" t="s">
         <v>681</v>
       </c>
     </row>
@@ -10713,7 +10768,7 @@
       <c r="B678" s="1">
         <v>22</v>
       </c>
-      <c r="C678" s="6" t="s">
+      <c r="C678" s="4" t="s">
         <v>682</v>
       </c>
     </row>
@@ -10724,7 +10779,7 @@
       <c r="B679" s="1">
         <v>22</v>
       </c>
-      <c r="C679" s="6" t="s">
+      <c r="C679" s="4" t="s">
         <v>683</v>
       </c>
     </row>
@@ -10735,7 +10790,7 @@
       <c r="B680" s="1">
         <v>22</v>
       </c>
-      <c r="C680" s="6" t="s">
+      <c r="C680" s="4" t="s">
         <v>684</v>
       </c>
     </row>
@@ -10746,7 +10801,7 @@
       <c r="B681" s="1">
         <v>22</v>
       </c>
-      <c r="C681" s="6" t="s">
+      <c r="C681" s="4" t="s">
         <v>685</v>
       </c>
     </row>
@@ -10757,7 +10812,7 @@
       <c r="B682" s="1">
         <v>22</v>
       </c>
-      <c r="C682" s="6" t="s">
+      <c r="C682" s="4" t="s">
         <v>686</v>
       </c>
     </row>
@@ -10768,7 +10823,7 @@
       <c r="B683" s="1">
         <v>22</v>
       </c>
-      <c r="C683" s="6" t="s">
+      <c r="C683" s="4" t="s">
         <v>687</v>
       </c>
     </row>
@@ -10779,7 +10834,7 @@
       <c r="B684" s="1">
         <v>22</v>
       </c>
-      <c r="C684" s="6" t="s">
+      <c r="C684" s="4" t="s">
         <v>688</v>
       </c>
     </row>
@@ -10790,7 +10845,7 @@
       <c r="B685" s="1">
         <v>22</v>
       </c>
-      <c r="C685" s="6" t="s">
+      <c r="C685" s="4" t="s">
         <v>689</v>
       </c>
     </row>
@@ -10801,7 +10856,7 @@
       <c r="B686" s="1">
         <v>22</v>
       </c>
-      <c r="C686" s="6" t="s">
+      <c r="C686" s="4" t="s">
         <v>690</v>
       </c>
     </row>
@@ -10812,7 +10867,7 @@
       <c r="B687" s="1">
         <v>22</v>
       </c>
-      <c r="C687" s="6" t="s">
+      <c r="C687" s="4" t="s">
         <v>691</v>
       </c>
     </row>
@@ -10823,7 +10878,7 @@
       <c r="B688" s="1">
         <v>22</v>
       </c>
-      <c r="C688" s="6" t="s">
+      <c r="C688" s="4" t="s">
         <v>692</v>
       </c>
     </row>
@@ -10834,7 +10889,7 @@
       <c r="B689" s="1">
         <v>22</v>
       </c>
-      <c r="C689" s="6" t="s">
+      <c r="C689" s="4" t="s">
         <v>693</v>
       </c>
     </row>
@@ -10845,7 +10900,7 @@
       <c r="B690" s="1">
         <v>22</v>
       </c>
-      <c r="C690" s="6" t="s">
+      <c r="C690" s="4" t="s">
         <v>694</v>
       </c>
     </row>
@@ -10856,7 +10911,7 @@
       <c r="B691" s="1">
         <v>22</v>
       </c>
-      <c r="C691" s="6" t="s">
+      <c r="C691" s="4" t="s">
         <v>695</v>
       </c>
     </row>
@@ -10867,7 +10922,7 @@
       <c r="B692" s="1">
         <v>22</v>
       </c>
-      <c r="C692" s="6" t="s">
+      <c r="C692" s="4" t="s">
         <v>696</v>
       </c>
     </row>
@@ -10878,7 +10933,7 @@
       <c r="B693" s="1">
         <v>22</v>
       </c>
-      <c r="C693" s="6" t="s">
+      <c r="C693" s="4" t="s">
         <v>697</v>
       </c>
     </row>
@@ -10889,7 +10944,7 @@
       <c r="B694" s="1">
         <v>22</v>
       </c>
-      <c r="C694" s="6" t="s">
+      <c r="C694" s="4" t="s">
         <v>698</v>
       </c>
     </row>
@@ -10900,7 +10955,7 @@
       <c r="B695" s="1">
         <v>22</v>
       </c>
-      <c r="C695" s="6" t="s">
+      <c r="C695" s="4" t="s">
         <v>699</v>
       </c>
     </row>
@@ -10911,7 +10966,7 @@
       <c r="B696" s="1">
         <v>22</v>
       </c>
-      <c r="C696" s="6" t="s">
+      <c r="C696" s="4" t="s">
         <v>700</v>
       </c>
     </row>
@@ -10922,7 +10977,7 @@
       <c r="B697" s="1">
         <v>22</v>
       </c>
-      <c r="C697" s="6" t="s">
+      <c r="C697" s="4" t="s">
         <v>701</v>
       </c>
     </row>
@@ -10933,7 +10988,7 @@
       <c r="B698" s="1">
         <v>22</v>
       </c>
-      <c r="C698" s="6" t="s">
+      <c r="C698" s="4" t="s">
         <v>702</v>
       </c>
     </row>
@@ -10944,7 +10999,7 @@
       <c r="B699" s="1">
         <v>22</v>
       </c>
-      <c r="C699" s="6" t="s">
+      <c r="C699" s="4" t="s">
         <v>703</v>
       </c>
     </row>
@@ -10955,7 +11010,7 @@
       <c r="B700" s="1">
         <v>22</v>
       </c>
-      <c r="C700" s="6" t="s">
+      <c r="C700" s="4" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10966,7 +11021,7 @@
       <c r="B701" s="1">
         <v>22</v>
       </c>
-      <c r="C701" s="6" t="s">
+      <c r="C701" s="4" t="s">
         <v>705</v>
       </c>
     </row>
@@ -10977,7 +11032,7 @@
       <c r="B702" s="1">
         <v>22</v>
       </c>
-      <c r="C702" s="6" t="s">
+      <c r="C702" s="4" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10988,7 +11043,7 @@
       <c r="B703" s="1">
         <v>22</v>
       </c>
-      <c r="C703" s="6" t="s">
+      <c r="C703" s="4" t="s">
         <v>707</v>
       </c>
     </row>
@@ -10999,7 +11054,7 @@
       <c r="B704" s="1">
         <v>22</v>
       </c>
-      <c r="C704" s="6" t="s">
+      <c r="C704" s="4" t="s">
         <v>708</v>
       </c>
     </row>
@@ -11010,7 +11065,7 @@
       <c r="B705" s="1">
         <v>22</v>
       </c>
-      <c r="C705" s="6" t="s">
+      <c r="C705" s="4" t="s">
         <v>709</v>
       </c>
     </row>
@@ -11021,7 +11076,7 @@
       <c r="B706" s="1">
         <v>22</v>
       </c>
-      <c r="C706" s="6" t="s">
+      <c r="C706" s="4" t="s">
         <v>710</v>
       </c>
     </row>
@@ -11032,7 +11087,7 @@
       <c r="B707" s="1">
         <v>22</v>
       </c>
-      <c r="C707" s="6" t="s">
+      <c r="C707" s="4" t="s">
         <v>711</v>
       </c>
     </row>
@@ -11043,7 +11098,7 @@
       <c r="B708" s="1">
         <v>22</v>
       </c>
-      <c r="C708" s="6" t="s">
+      <c r="C708" s="4" t="s">
         <v>712</v>
       </c>
     </row>
@@ -11054,7 +11109,7 @@
       <c r="B709" s="1">
         <v>22</v>
       </c>
-      <c r="C709" s="6" t="s">
+      <c r="C709" s="4" t="s">
         <v>713</v>
       </c>
     </row>
@@ -11065,7 +11120,7 @@
       <c r="B710" s="1">
         <v>22</v>
       </c>
-      <c r="C710" s="6" t="s">
+      <c r="C710" s="4" t="s">
         <v>714</v>
       </c>
     </row>
@@ -11151,14 +11206,125 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
